--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_22_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581406.6807560035</v>
+        <v>-582090.9240959643</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6033391.197417974</v>
+        <v>6033391.197417984</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>122.9923217059893</v>
+        <v>97.69222222802999</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.37943843060876</v>
+        <v>37.37943843060838</v>
       </c>
       <c r="V11" t="n">
-        <v>118.7000222604372</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>144.0001217383938</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.74098649571548</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.42667720891154</v>
       </c>
       <c r="S12" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>68.59011762714529</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="V12" t="n">
-        <v>11.20220722356854</v>
+        <v>91.26580786940936</v>
       </c>
       <c r="W12" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>21.5794481649005</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>107.5585725189038</v>
       </c>
       <c r="I13" t="n">
-        <v>134.7371713495762</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.59287420192325</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.80988382663731</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.79767854512902</v>
+        <v>14.79767854512865</v>
       </c>
       <c r="U13" t="n">
-        <v>69.39432448974516</v>
+        <v>69.39432448974479</v>
       </c>
       <c r="V13" t="n">
-        <v>43.21849229458078</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="W13" t="n">
-        <v>68.38537836519404</v>
+        <v>68.38537836519367</v>
       </c>
       <c r="X13" t="n">
-        <v>14.03048036099716</v>
+        <v>14.03048036099679</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.905348117064847</v>
+        <v>4.905348117064477</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="D14" t="n">
-        <v>17.59847131132058</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>11.76955375115588</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>108.491929119956</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.602084647045782</v>
+        <v>4.602084647045331</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.7000222604369</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>144.0001217383938</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="U15" t="n">
-        <v>1.379447522937171</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="V15" t="n">
-        <v>89.88636034647358</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="W15" t="n">
-        <v>148.379297318713</v>
+        <v>23.99325097644186</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>148.379297318713</v>
+        <v>67.27255689296751</v>
       </c>
     </row>
     <row r="16">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.687415988688105</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.59287420192325</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.80988382663731</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>136.0296090620145</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.79767854512911</v>
+        <v>14.79767854512865</v>
       </c>
       <c r="U16" t="n">
-        <v>148.379297318713</v>
+        <v>101.8643261721955</v>
       </c>
       <c r="V16" t="n">
-        <v>43.21849229458087</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="W16" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="X16" t="n">
-        <v>14.03048036099725</v>
+        <v>14.03048036099679</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.905348117064932</v>
+        <v>148.3792973187113</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.70171590030219</v>
+        <v>66.70171590030156</v>
       </c>
       <c r="C17" t="n">
-        <v>54.71303285798393</v>
+        <v>54.71303285798331</v>
       </c>
       <c r="D17" t="n">
-        <v>45.69433690251191</v>
+        <v>45.69433690251128</v>
       </c>
       <c r="E17" t="n">
-        <v>67.43647447241744</v>
+        <v>67.43647447241682</v>
       </c>
       <c r="F17" t="n">
-        <v>86.60829056039461</v>
+        <v>86.60829056039398</v>
       </c>
       <c r="G17" t="n">
-        <v>87.94674108336312</v>
+        <v>87.9467410833625</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>10.20809314048131</v>
+        <v>10.20809314048068</v>
       </c>
       <c r="W17" t="n">
-        <v>35.50819261843822</v>
+        <v>35.50819261843759</v>
       </c>
       <c r="X17" t="n">
-        <v>54.80845085118496</v>
+        <v>54.8084508511842</v>
       </c>
       <c r="Y17" t="n">
-        <v>66.20504864738359</v>
+        <v>66.20504864738297</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>91.26580786941075</v>
+        <v>127.122959624192</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.42667720891154</v>
+        <v>6.588784247218773</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="V18" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>130.6924850783223</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.80988382663731</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>114.8826012516836</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.70171590030219</v>
+        <v>66.70171590030156</v>
       </c>
       <c r="C20" t="n">
-        <v>54.71303285798393</v>
+        <v>54.71303285798331</v>
       </c>
       <c r="D20" t="n">
-        <v>45.69433690251191</v>
+        <v>45.69433690251128</v>
       </c>
       <c r="E20" t="n">
-        <v>67.43647447241744</v>
+        <v>67.43647447241682</v>
       </c>
       <c r="F20" t="n">
-        <v>86.60829056039461</v>
+        <v>86.60829056039398</v>
       </c>
       <c r="G20" t="n">
-        <v>87.94674108336312</v>
+        <v>87.9467410833625</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>10.20809314048131</v>
+        <v>10.20809314048068</v>
       </c>
       <c r="W20" t="n">
-        <v>35.50819261843822</v>
+        <v>35.50819261843759</v>
       </c>
       <c r="X20" t="n">
-        <v>54.80845085118483</v>
+        <v>54.8084508511842</v>
       </c>
       <c r="Y20" t="n">
-        <v>66.20504864738359</v>
+        <v>66.20504864738297</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>133.7117438714108</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86480218241284</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.74098649571548</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.42667720891154</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T21" t="n">
-        <v>87.03931650999542</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.7371713495762</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>130.6924850783209</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>144.3346110474591</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.70171590030219</v>
+        <v>66.70171590030156</v>
       </c>
       <c r="C23" t="n">
-        <v>54.71303285798393</v>
+        <v>54.71303285798331</v>
       </c>
       <c r="D23" t="n">
-        <v>45.69433690251191</v>
+        <v>45.69433690251128</v>
       </c>
       <c r="E23" t="n">
-        <v>67.43647447241744</v>
+        <v>67.43647447241682</v>
       </c>
       <c r="F23" t="n">
-        <v>86.60829056039461</v>
+        <v>86.60829056039398</v>
       </c>
       <c r="G23" t="n">
-        <v>87.94674108336312</v>
+        <v>87.9467410833625</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>10.20809314048131</v>
+        <v>10.20809314048068</v>
       </c>
       <c r="W23" t="n">
-        <v>35.50819261843822</v>
+        <v>35.50819261843759</v>
       </c>
       <c r="X23" t="n">
-        <v>54.80845085118483</v>
+        <v>54.8084508511842</v>
       </c>
       <c r="Y23" t="n">
-        <v>66.20504864738359</v>
+        <v>66.20504864738297</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>102.0717537590837</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.86480218241284</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.74098649571548</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>39.42667720891154</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>94.28506666249928</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="X24" t="n">
-        <v>148.3792973187128</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
     </row>
     <row r="25">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.8826012516849</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="C25" t="n">
-        <v>148.3792973187128</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>148.3792973187128</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>15.80988382663731</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>114.8826012516836</v>
       </c>
       <c r="S25" t="n">
-        <v>148.3792973187128</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280.3344659504825</v>
+        <v>280.3344659504821</v>
       </c>
       <c r="C26" t="n">
-        <v>268.3457829081643</v>
+        <v>268.3457829081639</v>
       </c>
       <c r="D26" t="n">
-        <v>259.3270869526922</v>
+        <v>259.3270869526918</v>
       </c>
       <c r="E26" t="n">
-        <v>281.0692245225978</v>
+        <v>281.0692245225974</v>
       </c>
       <c r="F26" t="n">
-        <v>300.2410406105749</v>
+        <v>300.2410406105745</v>
       </c>
       <c r="G26" t="n">
-        <v>301.5794911335435</v>
+        <v>301.5794911335431</v>
       </c>
       <c r="H26" t="n">
-        <v>213.6327500501803</v>
+        <v>213.6327500501799</v>
       </c>
       <c r="I26" t="n">
-        <v>38.38869180229744</v>
+        <v>38.38869180229705</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.03364652322249</v>
+        <v>62.03364652322207</v>
       </c>
       <c r="T26" t="n">
-        <v>109.7429055772701</v>
+        <v>109.7429055772697</v>
       </c>
       <c r="U26" t="n">
-        <v>142.5202593608332</v>
+        <v>142.5202593608328</v>
       </c>
       <c r="V26" t="n">
-        <v>223.8408431906616</v>
+        <v>223.8408431906612</v>
       </c>
       <c r="W26" t="n">
-        <v>249.1409426686185</v>
+        <v>249.1409426686182</v>
       </c>
       <c r="X26" t="n">
-        <v>268.4412009013652</v>
+        <v>268.4412009013648</v>
       </c>
       <c r="Y26" t="n">
-        <v>279.8377986975639</v>
+        <v>279.8377986975635</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.9511768251796</v>
+        <v>71.9511768251792</v>
       </c>
       <c r="C28" t="n">
-        <v>58.15117167058008</v>
+        <v>58.15117167057969</v>
       </c>
       <c r="D28" t="n">
-        <v>41.77253606815847</v>
+        <v>41.77253606815808</v>
       </c>
       <c r="E28" t="n">
-        <v>40.72028592393792</v>
+        <v>40.72028592393752</v>
       </c>
       <c r="F28" t="n">
-        <v>41.18721025212423</v>
+        <v>41.18721025212383</v>
       </c>
       <c r="G28" t="n">
-        <v>57.19509837661145</v>
+        <v>57.19509837661105</v>
       </c>
       <c r="H28" t="n">
-        <v>45.63805627134717</v>
+        <v>45.63805627134677</v>
       </c>
       <c r="I28" t="n">
-        <v>24.96853317721977</v>
+        <v>24.96853317721937</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.26097088965805</v>
+        <v>26.26097088965766</v>
       </c>
       <c r="S28" t="n">
-        <v>97.15417605088557</v>
+        <v>97.15417605088517</v>
       </c>
       <c r="T28" t="n">
-        <v>119.9384994753534</v>
+        <v>119.938499475353</v>
       </c>
       <c r="U28" t="n">
-        <v>174.5351454199696</v>
+        <v>174.5351454199692</v>
       </c>
       <c r="V28" t="n">
-        <v>148.3593132248052</v>
+        <v>148.3593132248048</v>
       </c>
       <c r="W28" t="n">
-        <v>173.5261992954185</v>
+        <v>173.5261992954181</v>
       </c>
       <c r="X28" t="n">
-        <v>119.1713012912216</v>
+        <v>119.1713012912212</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0461690472893</v>
+        <v>110.0461690472889</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>280.3344659504825</v>
+        <v>280.3344659504821</v>
       </c>
       <c r="C29" t="n">
-        <v>268.3457829081643</v>
+        <v>268.3457829081639</v>
       </c>
       <c r="D29" t="n">
-        <v>259.3270869526922</v>
+        <v>259.3270869526918</v>
       </c>
       <c r="E29" t="n">
-        <v>281.0692245225978</v>
+        <v>281.0692245225974</v>
       </c>
       <c r="F29" t="n">
-        <v>300.2410406105749</v>
+        <v>300.2410406105745</v>
       </c>
       <c r="G29" t="n">
-        <v>301.5794911335435</v>
+        <v>301.5794911335431</v>
       </c>
       <c r="H29" t="n">
-        <v>213.6327500501803</v>
+        <v>213.6327500501799</v>
       </c>
       <c r="I29" t="n">
-        <v>38.38869180229744</v>
+        <v>38.38869180229705</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.03364652322249</v>
+        <v>62.03364652322207</v>
       </c>
       <c r="T29" t="n">
-        <v>109.7429055772701</v>
+        <v>109.7429055772697</v>
       </c>
       <c r="U29" t="n">
-        <v>142.5202593608332</v>
+        <v>142.5202593608328</v>
       </c>
       <c r="V29" t="n">
-        <v>223.8408431906616</v>
+        <v>223.8408431906612</v>
       </c>
       <c r="W29" t="n">
-        <v>249.1409426686185</v>
+        <v>249.1409426686182</v>
       </c>
       <c r="X29" t="n">
-        <v>268.4412009013652</v>
+        <v>268.4412009013648</v>
       </c>
       <c r="Y29" t="n">
-        <v>279.8377986975639</v>
+        <v>279.8377986975635</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.9511768251796</v>
+        <v>71.9511768251792</v>
       </c>
       <c r="C31" t="n">
-        <v>58.15117167058008</v>
+        <v>58.15117167057969</v>
       </c>
       <c r="D31" t="n">
-        <v>41.77253606815847</v>
+        <v>41.77253606815808</v>
       </c>
       <c r="E31" t="n">
-        <v>40.72028592393792</v>
+        <v>40.72028592393752</v>
       </c>
       <c r="F31" t="n">
-        <v>41.18721025212423</v>
+        <v>41.18721025212383</v>
       </c>
       <c r="G31" t="n">
-        <v>57.19509837661145</v>
+        <v>57.19509837661105</v>
       </c>
       <c r="H31" t="n">
-        <v>45.63805627134717</v>
+        <v>45.63805627134677</v>
       </c>
       <c r="I31" t="n">
-        <v>24.96853317721977</v>
+        <v>24.96853317721937</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.26097088965805</v>
+        <v>26.26097088965766</v>
       </c>
       <c r="S31" t="n">
-        <v>97.15417605088557</v>
+        <v>97.15417605088517</v>
       </c>
       <c r="T31" t="n">
-        <v>119.9384994753534</v>
+        <v>119.938499475353</v>
       </c>
       <c r="U31" t="n">
-        <v>174.5351454199696</v>
+        <v>174.5351454199692</v>
       </c>
       <c r="V31" t="n">
-        <v>148.3593132248052</v>
+        <v>148.3593132248048</v>
       </c>
       <c r="W31" t="n">
-        <v>173.5261992954185</v>
+        <v>173.5261992954181</v>
       </c>
       <c r="X31" t="n">
-        <v>119.1713012912216</v>
+        <v>119.1713012912212</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0461690472893</v>
+        <v>110.0461690472889</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>280.3344659504826</v>
+        <v>280.3344659504821</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3457829081643</v>
+        <v>268.3457829081639</v>
       </c>
       <c r="D32" t="n">
-        <v>259.3270869526923</v>
+        <v>259.3270869526918</v>
       </c>
       <c r="E32" t="n">
-        <v>281.0692245225978</v>
+        <v>281.0692245225974</v>
       </c>
       <c r="F32" t="n">
-        <v>300.241040610575</v>
+        <v>300.2410406105745</v>
       </c>
       <c r="G32" t="n">
-        <v>301.5794911335435</v>
+        <v>301.5794911335431</v>
       </c>
       <c r="H32" t="n">
-        <v>213.6327500501803</v>
+        <v>213.6327500501799</v>
       </c>
       <c r="I32" t="n">
-        <v>38.3886918022975</v>
+        <v>38.38869180229705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.03364652322253</v>
+        <v>62.03364652322207</v>
       </c>
       <c r="T32" t="n">
-        <v>109.7429055772702</v>
+        <v>109.7429055772697</v>
       </c>
       <c r="U32" t="n">
-        <v>142.5202593608332</v>
+        <v>142.5202593608328</v>
       </c>
       <c r="V32" t="n">
-        <v>223.8408431906617</v>
+        <v>223.8408431906612</v>
       </c>
       <c r="W32" t="n">
-        <v>249.1409426686186</v>
+        <v>249.1409426686182</v>
       </c>
       <c r="X32" t="n">
-        <v>268.4412009013652</v>
+        <v>268.4412009013648</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.837798697564</v>
+        <v>279.8377986975635</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.95117682517966</v>
+        <v>71.9511768251792</v>
       </c>
       <c r="C34" t="n">
-        <v>58.15117167058014</v>
+        <v>58.15117167057969</v>
       </c>
       <c r="D34" t="n">
-        <v>41.77253606815853</v>
+        <v>41.77253606815808</v>
       </c>
       <c r="E34" t="n">
-        <v>40.72028592393798</v>
+        <v>40.72028592393752</v>
       </c>
       <c r="F34" t="n">
-        <v>41.18721025212429</v>
+        <v>41.18721025212383</v>
       </c>
       <c r="G34" t="n">
-        <v>57.1950983766115</v>
+        <v>57.19509837661105</v>
       </c>
       <c r="H34" t="n">
-        <v>45.63805627134722</v>
+        <v>45.63805627134677</v>
       </c>
       <c r="I34" t="n">
-        <v>24.96853317721983</v>
+        <v>24.96853317721937</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.26097088965811</v>
+        <v>26.26097088965766</v>
       </c>
       <c r="S34" t="n">
-        <v>97.15417605088562</v>
+        <v>97.15417605088517</v>
       </c>
       <c r="T34" t="n">
-        <v>119.9384994753535</v>
+        <v>119.938499475353</v>
       </c>
       <c r="U34" t="n">
-        <v>174.5351454199696</v>
+        <v>174.5351454199692</v>
       </c>
       <c r="V34" t="n">
-        <v>148.3593132248052</v>
+        <v>148.3593132248048</v>
       </c>
       <c r="W34" t="n">
-        <v>173.5261992954185</v>
+        <v>173.5261992954181</v>
       </c>
       <c r="X34" t="n">
-        <v>119.1713012912216</v>
+        <v>119.1713012912212</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0461690472893</v>
+        <v>110.0461690472889</v>
       </c>
     </row>
     <row r="35">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.9457741481851</v>
+        <v>241.945774148185</v>
       </c>
       <c r="C41" t="n">
-        <v>229.9570911058668</v>
+        <v>229.9570911058667</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9383951503948</v>
+        <v>220.9383951503947</v>
       </c>
       <c r="E41" t="n">
-        <v>242.6805327203003</v>
+        <v>242.6805327203002</v>
       </c>
       <c r="F41" t="n">
-        <v>261.8523488082775</v>
+        <v>261.8523488082774</v>
       </c>
       <c r="G41" t="n">
-        <v>263.190799331246</v>
+        <v>263.1907993312459</v>
       </c>
       <c r="H41" t="n">
-        <v>175.2440582478828</v>
+        <v>175.2440582478827</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.64495472092504</v>
+        <v>23.64495472092494</v>
       </c>
       <c r="T41" t="n">
-        <v>71.35421377497266</v>
+        <v>71.35421377497258</v>
       </c>
       <c r="U41" t="n">
-        <v>104.1315675585357</v>
+        <v>104.1315675585356</v>
       </c>
       <c r="V41" t="n">
-        <v>185.4521513883642</v>
+        <v>185.4521513883641</v>
       </c>
       <c r="W41" t="n">
-        <v>210.7522508663211</v>
+        <v>210.752250866321</v>
       </c>
       <c r="X41" t="n">
-        <v>230.0525090990677</v>
+        <v>230.0525090990676</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.4491068952665</v>
+        <v>241.4491068952664</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.42667720891153</v>
+        <v>39.42667720891154</v>
       </c>
       <c r="S42" t="n">
         <v>145.3600385256214</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.56248502288216</v>
+        <v>33.56248502288207</v>
       </c>
       <c r="C43" t="n">
-        <v>19.76247986828264</v>
+        <v>19.76247986828255</v>
       </c>
       <c r="D43" t="n">
-        <v>3.383844265861029</v>
+        <v>3.383844265860944</v>
       </c>
       <c r="E43" t="n">
-        <v>2.331594121640478</v>
+        <v>2.331594121640393</v>
       </c>
       <c r="F43" t="n">
-        <v>2.798518449826787</v>
+        <v>2.798518449826702</v>
       </c>
       <c r="G43" t="n">
-        <v>18.806406574314</v>
+        <v>18.80640657431392</v>
       </c>
       <c r="H43" t="n">
-        <v>7.249364469049722</v>
+        <v>7.249364469049638</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>58.76548424858812</v>
+        <v>58.76548424858803</v>
       </c>
       <c r="T43" t="n">
-        <v>81.54980767305598</v>
+        <v>81.54980767305589</v>
       </c>
       <c r="U43" t="n">
         <v>136.1464536176721</v>
@@ -3958,13 +3958,13 @@
         <v>109.9706214225077</v>
       </c>
       <c r="W43" t="n">
-        <v>135.137507493121</v>
+        <v>135.1375074931209</v>
       </c>
       <c r="X43" t="n">
-        <v>80.78260948892412</v>
+        <v>80.78260948892404</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.65747724499181</v>
+        <v>71.65747724499172</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.42667720891153</v>
+        <v>39.42667720891154</v>
       </c>
       <c r="S45" t="n">
         <v>145.3600385256214</v>
@@ -4150,7 +4150,7 @@
         <v>18.806406574314</v>
       </c>
       <c r="H46" t="n">
-        <v>7.249364469049722</v>
+        <v>7.249364469049723</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>435.8611683748054</v>
+        <v>260.4274342367509</v>
       </c>
       <c r="C11" t="n">
-        <v>311.6264999849172</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="D11" t="n">
-        <v>311.6264999849172</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="E11" t="n">
-        <v>161.7484218852071</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="F11" t="n">
-        <v>11.87034378549704</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="G11" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H11" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I11" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J11" t="n">
-        <v>133.8484253820178</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K11" t="n">
-        <v>133.8484253820178</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="L11" t="n">
-        <v>133.8484253820178</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="M11" t="n">
-        <v>133.8484253820178</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="N11" t="n">
-        <v>152.8306762382743</v>
+        <v>305.6613524765453</v>
       </c>
       <c r="O11" t="n">
-        <v>299.7261805838001</v>
+        <v>452.5568568220696</v>
       </c>
       <c r="P11" t="n">
-        <v>446.621684929326</v>
+        <v>452.5568568220696</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R11" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S11" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T11" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="U11" t="n">
-        <v>555.7601807590854</v>
+        <v>555.7601807590793</v>
       </c>
       <c r="V11" t="n">
-        <v>435.8611683748054</v>
+        <v>555.7601807590793</v>
       </c>
       <c r="W11" t="n">
-        <v>435.8611683748054</v>
+        <v>410.3055123364593</v>
       </c>
       <c r="X11" t="n">
-        <v>435.8611683748054</v>
+        <v>260.4274342367509</v>
       </c>
       <c r="Y11" t="n">
-        <v>435.8611683748054</v>
+        <v>260.4274342367509</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>216.2124815020758</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="C12" t="n">
-        <v>216.2124815020758</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D12" t="n">
-        <v>216.2124815020758</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E12" t="n">
-        <v>69.18447155894702</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F12" t="n">
-        <v>69.18447155894702</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G12" t="n">
-        <v>69.18447155894702</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H12" t="n">
-        <v>69.18447155894702</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I12" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J12" t="n">
-        <v>11.87034378549704</v>
+        <v>101.8919603544998</v>
       </c>
       <c r="K12" t="n">
-        <v>11.87034378549704</v>
+        <v>101.8919603544998</v>
       </c>
       <c r="L12" t="n">
-        <v>152.8306762382743</v>
+        <v>101.8919603544998</v>
       </c>
       <c r="M12" t="n">
-        <v>152.8306762382743</v>
+        <v>101.8919603544998</v>
       </c>
       <c r="N12" t="n">
-        <v>299.7261805838001</v>
+        <v>248.787464700024</v>
       </c>
       <c r="O12" t="n">
-        <v>446.621684929326</v>
+        <v>395.6829690455482</v>
       </c>
       <c r="P12" t="n">
-        <v>446.621684929326</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="Q12" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R12" t="n">
-        <v>593.5171892748518</v>
+        <v>553.6922628011973</v>
       </c>
       <c r="S12" t="n">
-        <v>446.6888675317999</v>
+        <v>553.6922628011973</v>
       </c>
       <c r="T12" t="n">
-        <v>446.6888675317999</v>
+        <v>553.6922628011973</v>
       </c>
       <c r="U12" t="n">
-        <v>377.4059204336733</v>
+        <v>403.8141847014889</v>
       </c>
       <c r="V12" t="n">
-        <v>366.0905596017859</v>
+        <v>311.6264999849138</v>
       </c>
       <c r="W12" t="n">
-        <v>216.2124815020758</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="X12" t="n">
-        <v>216.2124815020758</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="Y12" t="n">
-        <v>216.2124815020758</v>
+        <v>161.7484218852053</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.6469003866212</v>
+        <v>270.3934446315728</v>
       </c>
       <c r="C13" t="n">
-        <v>360.6469003866212</v>
+        <v>270.3934446315728</v>
       </c>
       <c r="D13" t="n">
-        <v>210.7688222869111</v>
+        <v>120.5153665318644</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7688222869111</v>
+        <v>120.5153665318644</v>
       </c>
       <c r="F13" t="n">
-        <v>188.9713998981227</v>
+        <v>120.5153665318644</v>
       </c>
       <c r="G13" t="n">
-        <v>188.9713998981227</v>
+        <v>120.5153665318644</v>
       </c>
       <c r="H13" t="n">
-        <v>188.9713998981227</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I13" t="n">
-        <v>52.87324701976295</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J13" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K13" t="n">
-        <v>76.16354646104881</v>
+        <v>76.16354646104867</v>
       </c>
       <c r="L13" t="n">
-        <v>216.0419991148353</v>
+        <v>216.0419991148352</v>
       </c>
       <c r="M13" t="n">
-        <v>216.0419991148353</v>
+        <v>351.7058886314803</v>
       </c>
       <c r="N13" t="n">
-        <v>362.8018463134213</v>
+        <v>498.6013929770045</v>
       </c>
       <c r="O13" t="n">
-        <v>498.601392977011</v>
+        <v>498.6013929770045</v>
       </c>
       <c r="P13" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q13" t="n">
-        <v>577.5476096519859</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R13" t="n">
-        <v>577.5476096519859</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S13" t="n">
-        <v>577.5476096519859</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T13" t="n">
-        <v>562.600459606401</v>
+        <v>578.5700392292608</v>
       </c>
       <c r="U13" t="n">
-        <v>492.5051823440322</v>
+        <v>508.4747619668923</v>
       </c>
       <c r="V13" t="n">
-        <v>448.8501396222334</v>
+        <v>358.5966838671839</v>
       </c>
       <c r="W13" t="n">
-        <v>379.7739998594111</v>
+        <v>289.520544104362</v>
       </c>
       <c r="X13" t="n">
-        <v>365.6017974745655</v>
+        <v>275.3483417195167</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.6469003866212</v>
+        <v>270.3934446315728</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.1124627248804</v>
+        <v>173.636860017686</v>
       </c>
       <c r="C14" t="n">
-        <v>139.2343846251703</v>
+        <v>23.7587819179776</v>
       </c>
       <c r="D14" t="n">
-        <v>121.4581509773718</v>
+        <v>23.7587819179776</v>
       </c>
       <c r="E14" t="n">
-        <v>121.4581509773718</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F14" t="n">
-        <v>121.4581509773718</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G14" t="n">
-        <v>121.4581509773718</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H14" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I14" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J14" t="n">
-        <v>11.87034378549704</v>
+        <v>133.8484253820176</v>
       </c>
       <c r="K14" t="n">
-        <v>158.7658481310229</v>
+        <v>280.7439297275419</v>
       </c>
       <c r="L14" t="n">
-        <v>299.7261805838001</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="M14" t="n">
-        <v>299.7261805838001</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="N14" t="n">
-        <v>299.7261805838001</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="O14" t="n">
-        <v>299.7261805838001</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="P14" t="n">
-        <v>446.621684929326</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R14" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S14" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T14" t="n">
-        <v>588.8686189243006</v>
+        <v>588.8686189242945</v>
       </c>
       <c r="U14" t="n">
-        <v>588.8686189243006</v>
+        <v>588.8686189242945</v>
       </c>
       <c r="V14" t="n">
-        <v>588.8686189243006</v>
+        <v>468.9696065400149</v>
       </c>
       <c r="W14" t="n">
-        <v>588.8686189243006</v>
+        <v>323.5149381173949</v>
       </c>
       <c r="X14" t="n">
-        <v>588.8686189243006</v>
+        <v>173.636860017686</v>
       </c>
       <c r="Y14" t="n">
-        <v>438.9905408245905</v>
+        <v>173.636860017686</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="C15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I15" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8919603544999</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K15" t="n">
-        <v>101.8919603544999</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="L15" t="n">
-        <v>101.8919603544999</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="M15" t="n">
-        <v>248.7874647000257</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="N15" t="n">
-        <v>395.6829690455515</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="O15" t="n">
-        <v>542.5784733910774</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="P15" t="n">
-        <v>542.5784733910774</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q15" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R15" t="n">
-        <v>553.6922628012038</v>
+        <v>553.6922628011973</v>
       </c>
       <c r="S15" t="n">
-        <v>553.6922628012038</v>
+        <v>553.6922628011973</v>
       </c>
       <c r="T15" t="n">
-        <v>553.6922628012038</v>
+        <v>403.8141847014889</v>
       </c>
       <c r="U15" t="n">
-        <v>552.2988814649036</v>
+        <v>253.9361066017805</v>
       </c>
       <c r="V15" t="n">
-        <v>461.5045780846273</v>
+        <v>104.058028502072</v>
       </c>
       <c r="W15" t="n">
-        <v>311.6264999849172</v>
+        <v>79.82242145516106</v>
       </c>
       <c r="X15" t="n">
-        <v>311.6264999849172</v>
+        <v>79.82242145516106</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.7484218852071</v>
+        <v>11.87034378549691</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.65851569520548</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="C16" t="n">
-        <v>62.65851569520548</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D16" t="n">
-        <v>52.87324701976295</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E16" t="n">
-        <v>52.87324701976295</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F16" t="n">
-        <v>52.87324701976295</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G16" t="n">
-        <v>52.87324701976295</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H16" t="n">
-        <v>52.87324701976295</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I16" t="n">
-        <v>52.87324701976295</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J16" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K16" t="n">
-        <v>76.16354646104881</v>
+        <v>76.16354646104867</v>
       </c>
       <c r="L16" t="n">
-        <v>216.0419991148353</v>
+        <v>163.9266339202071</v>
       </c>
       <c r="M16" t="n">
-        <v>362.9375034603612</v>
+        <v>310.8221382657313</v>
       </c>
       <c r="N16" t="n">
-        <v>509.8330078058871</v>
+        <v>457.7176426112555</v>
       </c>
       <c r="O16" t="n">
-        <v>509.8330078058871</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="P16" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q16" t="n">
-        <v>577.5476096519859</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R16" t="n">
-        <v>440.1439641347995</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S16" t="n">
-        <v>440.1439641347995</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T16" t="n">
-        <v>425.1968140892146</v>
+        <v>578.5700392292608</v>
       </c>
       <c r="U16" t="n">
-        <v>275.3187359895045</v>
+        <v>475.6767804694674</v>
       </c>
       <c r="V16" t="n">
-        <v>231.6636932677056</v>
+        <v>325.798702369759</v>
       </c>
       <c r="W16" t="n">
-        <v>81.78561516799556</v>
+        <v>175.9206242700506</v>
       </c>
       <c r="X16" t="n">
-        <v>67.61341278314985</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.65851569520548</v>
+        <v>11.87034378549691</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.7277941659728</v>
+        <v>357.7277941659695</v>
       </c>
       <c r="C17" t="n">
-        <v>302.4621044104334</v>
+        <v>302.4621044104306</v>
       </c>
       <c r="D17" t="n">
-        <v>256.3062085493102</v>
+        <v>256.3062085493082</v>
       </c>
       <c r="E17" t="n">
-        <v>188.1885575670703</v>
+        <v>188.188557567069</v>
       </c>
       <c r="F17" t="n">
-        <v>100.7054357888941</v>
+        <v>100.7054357888933</v>
       </c>
       <c r="G17" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549622</v>
       </c>
       <c r="H17" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I17" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J17" t="n">
-        <v>133.8484253820178</v>
+        <v>133.8484253820176</v>
       </c>
       <c r="K17" t="n">
-        <v>133.8484253820178</v>
+        <v>152.8306762382727</v>
       </c>
       <c r="L17" t="n">
-        <v>280.7439297275436</v>
+        <v>152.8306762382727</v>
       </c>
       <c r="M17" t="n">
-        <v>299.7261805838001</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="N17" t="n">
-        <v>446.621684929326</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="O17" t="n">
-        <v>593.5171892748518</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="P17" t="n">
-        <v>593.5171892748518</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R17" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S17" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T17" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="U17" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="V17" t="n">
-        <v>583.2059840824464</v>
+        <v>583.2059840824404</v>
       </c>
       <c r="W17" t="n">
-        <v>547.3391228517007</v>
+        <v>547.3391228516953</v>
       </c>
       <c r="X17" t="n">
-        <v>491.9770512848474</v>
+        <v>491.9770512848428</v>
       </c>
       <c r="Y17" t="n">
-        <v>425.1032647723387</v>
+        <v>425.1032647723347</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.0580285020736</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="C18" t="n">
-        <v>104.0580285020736</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="D18" t="n">
-        <v>104.0580285020736</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="E18" t="n">
-        <v>104.0580285020736</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="F18" t="n">
-        <v>104.0580285020736</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="G18" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H18" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I18" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8919603544999</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K18" t="n">
-        <v>101.8919603544999</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7874647000257</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="M18" t="n">
-        <v>299.7261805838001</v>
+        <v>305.6613524765453</v>
       </c>
       <c r="N18" t="n">
-        <v>446.621684929326</v>
+        <v>305.6613524765453</v>
       </c>
       <c r="O18" t="n">
-        <v>446.621684929326</v>
+        <v>305.6613524765453</v>
       </c>
       <c r="P18" t="n">
-        <v>446.621684929326</v>
+        <v>452.5568568220696</v>
       </c>
       <c r="Q18" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R18" t="n">
-        <v>553.6922628012038</v>
+        <v>586.861851651392</v>
       </c>
       <c r="S18" t="n">
-        <v>553.6922628012038</v>
+        <v>440.0335299083401</v>
       </c>
       <c r="T18" t="n">
-        <v>553.6922628012038</v>
+        <v>290.1554518086317</v>
       </c>
       <c r="U18" t="n">
-        <v>553.6922628012038</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="V18" t="n">
-        <v>403.8141847014937</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="W18" t="n">
-        <v>403.8141847014937</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="X18" t="n">
-        <v>253.9361066017836</v>
+        <v>140.2773737089232</v>
       </c>
       <c r="Y18" t="n">
-        <v>104.0580285020736</v>
+        <v>140.2773737089232</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>293.7610330754317</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="C19" t="n">
-        <v>293.7610330754317</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D19" t="n">
-        <v>293.7610330754317</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E19" t="n">
-        <v>161.7484218852071</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F19" t="n">
-        <v>161.7484218852071</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G19" t="n">
-        <v>161.7484218852071</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H19" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I19" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J19" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K19" t="n">
-        <v>76.16354646104881</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="L19" t="n">
-        <v>76.16354646104881</v>
+        <v>151.7487964392834</v>
       </c>
       <c r="M19" t="n">
-        <v>223.0590508065746</v>
+        <v>298.6443007848077</v>
       </c>
       <c r="N19" t="n">
-        <v>369.9545551521005</v>
+        <v>362.8018463134148</v>
       </c>
       <c r="O19" t="n">
-        <v>498.601392977011</v>
+        <v>498.6013929770045</v>
       </c>
       <c r="P19" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q19" t="n">
-        <v>593.5171892748518</v>
+        <v>577.5476096519794</v>
       </c>
       <c r="R19" t="n">
-        <v>593.5171892748518</v>
+        <v>577.5476096519794</v>
       </c>
       <c r="S19" t="n">
-        <v>593.5171892748518</v>
+        <v>577.5476096519794</v>
       </c>
       <c r="T19" t="n">
-        <v>443.6391111751417</v>
+        <v>427.669531552271</v>
       </c>
       <c r="U19" t="n">
-        <v>443.6391111751417</v>
+        <v>427.669531552271</v>
       </c>
       <c r="V19" t="n">
-        <v>443.6391111751417</v>
+        <v>277.7914534525626</v>
       </c>
       <c r="W19" t="n">
-        <v>443.6391111751417</v>
+        <v>277.7914534525626</v>
       </c>
       <c r="X19" t="n">
-        <v>443.6391111751417</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="Y19" t="n">
-        <v>293.7610330754317</v>
+        <v>161.7484218852053</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>357.7277941659727</v>
+        <v>357.7277941659697</v>
       </c>
       <c r="C20" t="n">
-        <v>302.4621044104334</v>
+        <v>302.462104410431</v>
       </c>
       <c r="D20" t="n">
-        <v>256.3062085493102</v>
+        <v>256.3062085493085</v>
       </c>
       <c r="E20" t="n">
-        <v>188.1885575670703</v>
+        <v>188.1885575670693</v>
       </c>
       <c r="F20" t="n">
-        <v>100.705435788894</v>
+        <v>100.7054357888936</v>
       </c>
       <c r="G20" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549622</v>
       </c>
       <c r="H20" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I20" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J20" t="n">
-        <v>133.8484253820178</v>
+        <v>133.8484253820176</v>
       </c>
       <c r="K20" t="n">
-        <v>280.7439297275436</v>
+        <v>133.8484253820176</v>
       </c>
       <c r="L20" t="n">
-        <v>427.6394340730694</v>
+        <v>152.8306762382727</v>
       </c>
       <c r="M20" t="n">
-        <v>574.5349384185953</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="N20" t="n">
-        <v>574.5349384185953</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="O20" t="n">
-        <v>593.5171892748518</v>
+        <v>299.7261805837969</v>
       </c>
       <c r="P20" t="n">
-        <v>593.5171892748518</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R20" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S20" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T20" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="U20" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="V20" t="n">
-        <v>583.2059840824464</v>
+        <v>583.2059840824406</v>
       </c>
       <c r="W20" t="n">
-        <v>547.3391228517007</v>
+        <v>547.3391228516956</v>
       </c>
       <c r="X20" t="n">
-        <v>491.9770512848473</v>
+        <v>491.9770512848429</v>
       </c>
       <c r="Y20" t="n">
-        <v>425.1032647723386</v>
+        <v>425.1032647723349</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.0176050765357</v>
+        <v>146.9327113323765</v>
       </c>
       <c r="C21" t="n">
-        <v>166.0176050765357</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D21" t="n">
-        <v>166.0176050765357</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E21" t="n">
-        <v>166.0176050765357</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F21" t="n">
-        <v>166.0176050765357</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G21" t="n">
-        <v>166.0176050765357</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H21" t="n">
-        <v>69.18447155894702</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I21" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J21" t="n">
-        <v>11.87034378549704</v>
+        <v>101.8919603544998</v>
       </c>
       <c r="K21" t="n">
-        <v>11.87034378549704</v>
+        <v>248.787464700024</v>
       </c>
       <c r="L21" t="n">
-        <v>158.7658481310229</v>
+        <v>248.787464700024</v>
       </c>
       <c r="M21" t="n">
-        <v>158.7658481310229</v>
+        <v>248.787464700024</v>
       </c>
       <c r="N21" t="n">
-        <v>299.7261805838001</v>
+        <v>395.6829690455482</v>
       </c>
       <c r="O21" t="n">
-        <v>446.621684929326</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="P21" t="n">
-        <v>446.621684929326</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q21" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R21" t="n">
-        <v>553.6922628012038</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S21" t="n">
-        <v>553.6922628012038</v>
+        <v>446.6888675317934</v>
       </c>
       <c r="T21" t="n">
-        <v>465.7737612759559</v>
+        <v>446.6888675317934</v>
       </c>
       <c r="U21" t="n">
-        <v>465.7737612759559</v>
+        <v>446.6888675317934</v>
       </c>
       <c r="V21" t="n">
-        <v>465.7737612759559</v>
+        <v>296.810789432085</v>
       </c>
       <c r="W21" t="n">
-        <v>465.7737612759559</v>
+        <v>296.810789432085</v>
       </c>
       <c r="X21" t="n">
-        <v>465.7737612759559</v>
+        <v>296.810789432085</v>
       </c>
       <c r="Y21" t="n">
-        <v>315.8956831762458</v>
+        <v>146.9327113323765</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.9684966638568</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="C22" t="n">
-        <v>147.9684966638568</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D22" t="n">
-        <v>147.9684966638568</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E22" t="n">
-        <v>147.9684966638568</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F22" t="n">
-        <v>147.9684966638568</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G22" t="n">
-        <v>147.9684966638568</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H22" t="n">
-        <v>147.9684966638568</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I22" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J22" t="n">
-        <v>11.87034378549704</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K22" t="n">
-        <v>76.16354646104881</v>
+        <v>64.93193163216958</v>
       </c>
       <c r="L22" t="n">
-        <v>216.0419991148353</v>
+        <v>204.8103842859561</v>
       </c>
       <c r="M22" t="n">
-        <v>216.0419991148353</v>
+        <v>351.7058886314803</v>
       </c>
       <c r="N22" t="n">
-        <v>362.9375034603612</v>
+        <v>498.6013929770045</v>
       </c>
       <c r="O22" t="n">
-        <v>498.601392977011</v>
+        <v>498.6013929770045</v>
       </c>
       <c r="P22" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q22" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R22" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S22" t="n">
-        <v>443.6391111751417</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T22" t="n">
-        <v>443.6391111751417</v>
+        <v>461.5045780846222</v>
       </c>
       <c r="U22" t="n">
-        <v>443.6391111751417</v>
+        <v>311.6264999849138</v>
       </c>
       <c r="V22" t="n">
-        <v>443.6391111751417</v>
+        <v>311.6264999849138</v>
       </c>
       <c r="W22" t="n">
-        <v>443.6391111751417</v>
+        <v>311.6264999849138</v>
       </c>
       <c r="X22" t="n">
-        <v>297.8465747635669</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="Y22" t="n">
-        <v>297.8465747635669</v>
+        <v>11.87034378549691</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.7277941659722</v>
+        <v>357.7277941659696</v>
       </c>
       <c r="C23" t="n">
-        <v>302.4621044104329</v>
+        <v>302.4621044104309</v>
       </c>
       <c r="D23" t="n">
-        <v>256.3062085493097</v>
+        <v>256.3062085493085</v>
       </c>
       <c r="E23" t="n">
-        <v>188.1885575670698</v>
+        <v>188.1885575670693</v>
       </c>
       <c r="F23" t="n">
-        <v>100.7054357888935</v>
+        <v>100.7054357888934</v>
       </c>
       <c r="G23" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H23" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549757</v>
       </c>
       <c r="I23" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J23" t="n">
-        <v>133.8484253820178</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K23" t="n">
-        <v>152.8306762382742</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="L23" t="n">
-        <v>299.7261805837999</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="M23" t="n">
-        <v>299.7261805837999</v>
+        <v>158.7658481310211</v>
       </c>
       <c r="N23" t="n">
-        <v>446.6216849293256</v>
+        <v>305.6613524765453</v>
       </c>
       <c r="O23" t="n">
-        <v>446.6216849293256</v>
+        <v>452.5568568220696</v>
       </c>
       <c r="P23" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R23" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="S23" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="T23" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="U23" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="V23" t="n">
-        <v>583.205984082446</v>
+        <v>583.2059840824406</v>
       </c>
       <c r="W23" t="n">
-        <v>547.3391228517003</v>
+        <v>547.3391228516956</v>
       </c>
       <c r="X23" t="n">
-        <v>491.9770512848469</v>
+        <v>491.9770512848429</v>
       </c>
       <c r="Y23" t="n">
-        <v>425.1032647723381</v>
+        <v>425.1032647723349</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>403.8141847014934</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="C24" t="n">
-        <v>403.8141847014934</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D24" t="n">
-        <v>403.8141847014934</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E24" t="n">
-        <v>403.8141847014934</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F24" t="n">
-        <v>269.1203866513678</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G24" t="n">
-        <v>166.0176050765357</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H24" t="n">
-        <v>69.18447155894701</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I24" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8919603544999</v>
+        <v>101.8919603544998</v>
       </c>
       <c r="K24" t="n">
-        <v>101.8919603544999</v>
+        <v>248.787464700024</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7874647000256</v>
+        <v>395.6829690455482</v>
       </c>
       <c r="M24" t="n">
-        <v>248.7874647000256</v>
+        <v>395.6829690455482</v>
       </c>
       <c r="N24" t="n">
-        <v>299.7261805837999</v>
+        <v>395.6829690455482</v>
       </c>
       <c r="O24" t="n">
-        <v>299.7261805837999</v>
+        <v>446.6216849293211</v>
       </c>
       <c r="P24" t="n">
-        <v>446.6216849293256</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q24" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="R24" t="n">
-        <v>553.6922628012034</v>
+        <v>553.6922628011973</v>
       </c>
       <c r="S24" t="n">
-        <v>553.6922628012034</v>
+        <v>406.8639410581454</v>
       </c>
       <c r="T24" t="n">
-        <v>553.6922628012034</v>
+        <v>406.8639410581454</v>
       </c>
       <c r="U24" t="n">
-        <v>553.6922628012034</v>
+        <v>311.6264999849138</v>
       </c>
       <c r="V24" t="n">
-        <v>553.6922628012034</v>
+        <v>311.6264999849138</v>
       </c>
       <c r="W24" t="n">
-        <v>553.6922628012034</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="X24" t="n">
-        <v>403.8141847014934</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="Y24" t="n">
-        <v>403.8141847014934</v>
+        <v>11.87034378549691</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>311.626499984917</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="C25" t="n">
-        <v>161.748421885207</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="D25" t="n">
-        <v>161.748421885207</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="E25" t="n">
-        <v>161.748421885207</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="F25" t="n">
-        <v>161.748421885207</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="G25" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="H25" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="I25" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="J25" t="n">
-        <v>11.87034378549703</v>
+        <v>11.87034378549691</v>
       </c>
       <c r="K25" t="n">
-        <v>76.1635464610488</v>
+        <v>76.16354646104867</v>
       </c>
       <c r="L25" t="n">
-        <v>216.0419991148353</v>
+        <v>76.16354646104867</v>
       </c>
       <c r="M25" t="n">
-        <v>362.9375034603611</v>
+        <v>223.0590508065729</v>
       </c>
       <c r="N25" t="n">
-        <v>362.9375034603611</v>
+        <v>362.8018463134148</v>
       </c>
       <c r="O25" t="n">
-        <v>498.6013929770106</v>
+        <v>498.6013929770045</v>
       </c>
       <c r="P25" t="n">
-        <v>593.5171892748514</v>
+        <v>593.5171892748454</v>
       </c>
       <c r="Q25" t="n">
-        <v>577.5476096519855</v>
+        <v>577.5476096519794</v>
       </c>
       <c r="R25" t="n">
-        <v>577.5476096519855</v>
+        <v>461.5045780846222</v>
       </c>
       <c r="S25" t="n">
-        <v>427.6695315522755</v>
+        <v>311.6264999849138</v>
       </c>
       <c r="T25" t="n">
-        <v>427.6695315522755</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="U25" t="n">
-        <v>427.6695315522755</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="V25" t="n">
-        <v>427.6695315522755</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="W25" t="n">
-        <v>427.6695315522755</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="X25" t="n">
-        <v>427.6695315522755</v>
+        <v>161.7484218852053</v>
       </c>
       <c r="Y25" t="n">
-        <v>427.6695315522755</v>
+        <v>161.7484218852053</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1746.961357696817</v>
+        <v>1746.961357696815</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.905011324933</v>
+        <v>1475.905011324932</v>
       </c>
       <c r="D26" t="n">
-        <v>1213.958458847466</v>
+        <v>1213.958458847465</v>
       </c>
       <c r="E26" t="n">
-        <v>930.0501512488827</v>
+        <v>930.050151248882</v>
       </c>
       <c r="F26" t="n">
-        <v>626.7763728543625</v>
+        <v>626.7763728543623</v>
       </c>
       <c r="G26" t="n">
-        <v>322.1506242346218</v>
+        <v>322.1506242346204</v>
       </c>
       <c r="H26" t="n">
-        <v>106.3599676182775</v>
+        <v>106.359967618277</v>
       </c>
       <c r="I26" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232042</v>
       </c>
       <c r="J26" t="n">
-        <v>298.2325446394741</v>
+        <v>298.2325446394744</v>
       </c>
       <c r="K26" t="n">
-        <v>613.2792872740035</v>
+        <v>613.2792872740039</v>
       </c>
       <c r="L26" t="n">
-        <v>1162.763588540542</v>
+        <v>1054.092636749909</v>
       </c>
       <c r="M26" t="n">
-        <v>1768.073985623339</v>
+        <v>1637.84807658073</v>
       </c>
       <c r="N26" t="n">
-        <v>2338.59474250531</v>
+        <v>2229.923790714671</v>
       </c>
       <c r="O26" t="n">
-        <v>2742.817162519181</v>
+        <v>2634.146210728542</v>
       </c>
       <c r="P26" t="n">
-        <v>3164.325137914389</v>
+        <v>3055.654186123751</v>
       </c>
       <c r="Q26" t="n">
-        <v>3322.34864049904</v>
+        <v>3322.348640499035</v>
       </c>
       <c r="R26" t="n">
-        <v>3379.175562616025</v>
+        <v>3379.175562616021</v>
       </c>
       <c r="S26" t="n">
-        <v>3316.51531360267</v>
+        <v>3316.515313602665</v>
       </c>
       <c r="T26" t="n">
-        <v>3205.66389382765</v>
+        <v>3205.663893827645</v>
       </c>
       <c r="U26" t="n">
-        <v>3061.704035887414</v>
+        <v>3061.70403588741</v>
       </c>
       <c r="V26" t="n">
-        <v>2835.602174078665</v>
+        <v>2835.602174078661</v>
       </c>
       <c r="W26" t="n">
-        <v>2583.944656231576</v>
+        <v>2583.944656231572</v>
       </c>
       <c r="X26" t="n">
-        <v>2312.791928048378</v>
+        <v>2312.791928048376</v>
       </c>
       <c r="Y26" t="n">
-        <v>2030.127484919526</v>
+        <v>2030.127484919524</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1767.090068844763</v>
+        <v>932.4019202288731</v>
       </c>
       <c r="C27" t="n">
-        <v>1605.386396085717</v>
+        <v>770.6982474698278</v>
       </c>
       <c r="D27" t="n">
-        <v>1466.54775907593</v>
+        <v>631.8596104600399</v>
       </c>
       <c r="E27" t="n">
-        <v>1319.519749132801</v>
+        <v>484.8316005169111</v>
       </c>
       <c r="F27" t="n">
-        <v>1184.825951082675</v>
+        <v>350.1378024667854</v>
       </c>
       <c r="G27" t="n">
-        <v>1056.418921159249</v>
+        <v>221.7307725433591</v>
       </c>
       <c r="H27" t="n">
-        <v>959.5857876416601</v>
+        <v>124.8976390257704</v>
       </c>
       <c r="I27" t="n">
-        <v>902.2716598682101</v>
+        <v>67.58351125232042</v>
       </c>
       <c r="J27" t="n">
-        <v>992.293276437213</v>
+        <v>157.6051278213233</v>
       </c>
       <c r="K27" t="n">
-        <v>1272.661176581618</v>
+        <v>157.6051278213233</v>
       </c>
       <c r="L27" t="n">
-        <v>1272.661176581618</v>
+        <v>591.8378454730816</v>
       </c>
       <c r="M27" t="n">
-        <v>1758.549546722966</v>
+        <v>1156.703460436989</v>
       </c>
       <c r="N27" t="n">
-        <v>2351.760376712141</v>
+        <v>1517.072228096251</v>
       </c>
       <c r="O27" t="n">
-        <v>2818.924161442594</v>
+        <v>1984.236012826704</v>
       </c>
       <c r="P27" t="n">
-        <v>3181.185166388542</v>
+        <v>2346.497017772652</v>
       </c>
       <c r="Q27" t="n">
-        <v>3379.175562616025</v>
+        <v>2544.487414000135</v>
       </c>
       <c r="R27" t="n">
-        <v>3339.350636142377</v>
+        <v>2504.662487526487</v>
       </c>
       <c r="S27" t="n">
-        <v>3192.522314399325</v>
+        <v>2357.834165783435</v>
       </c>
       <c r="T27" t="n">
-        <v>3005.132960473085</v>
+        <v>2170.444811857195</v>
       </c>
       <c r="U27" t="n">
-        <v>2786.659317417006</v>
+        <v>1951.971168801116</v>
       </c>
       <c r="V27" t="n">
-        <v>2558.26369486534</v>
+        <v>1723.57554624945</v>
       </c>
       <c r="W27" t="n">
-        <v>2316.94782609865</v>
+        <v>1482.25967748276</v>
       </c>
       <c r="X27" t="n">
-        <v>2119.030837976445</v>
+        <v>1284.342689360555</v>
       </c>
       <c r="Y27" t="n">
-        <v>1926.509511626024</v>
+        <v>1091.821363010134</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.3440079593701</v>
+        <v>380.3440079593672</v>
       </c>
       <c r="C28" t="n">
-        <v>321.6054507163599</v>
+        <v>321.6054507163574</v>
       </c>
       <c r="D28" t="n">
-        <v>279.4109698394322</v>
+        <v>279.4109698394301</v>
       </c>
       <c r="E28" t="n">
-        <v>238.2793678960605</v>
+        <v>238.2793678960588</v>
       </c>
       <c r="F28" t="n">
-        <v>196.6761252171472</v>
+        <v>196.6761252171459</v>
       </c>
       <c r="G28" t="n">
-        <v>138.9032985741053</v>
+        <v>138.9032985741044</v>
       </c>
       <c r="H28" t="n">
-        <v>92.80425183537078</v>
+        <v>92.80425183537029</v>
       </c>
       <c r="I28" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232042</v>
       </c>
       <c r="J28" t="n">
-        <v>136.0675175830493</v>
+        <v>136.0675175830497</v>
       </c>
       <c r="K28" t="n">
-        <v>309.0316720492339</v>
+        <v>200.3607202586014</v>
       </c>
       <c r="L28" t="n">
-        <v>463.810553910632</v>
+        <v>448.9101247030212</v>
       </c>
       <c r="M28" t="n">
-        <v>623.2102168812426</v>
+        <v>716.2293836834971</v>
       </c>
       <c r="N28" t="n">
-        <v>890.7251214020689</v>
+        <v>983.7442882043239</v>
       </c>
       <c r="O28" t="n">
-        <v>1135.195619856292</v>
+        <v>1228.214786658547</v>
       </c>
       <c r="P28" t="n">
-        <v>1338.782367944765</v>
+        <v>1431.801534747021</v>
       </c>
       <c r="Q28" t="n">
-        <v>1431.801534747027</v>
+        <v>1431.801534747021</v>
       </c>
       <c r="R28" t="n">
-        <v>1405.275301525151</v>
+        <v>1405.275301525144</v>
       </c>
       <c r="S28" t="n">
-        <v>1307.13977016062</v>
+        <v>1307.139770160614</v>
       </c>
       <c r="T28" t="n">
-        <v>1185.989770690566</v>
+        <v>1185.98977069056</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.691644003728</v>
+        <v>1009.691644003723</v>
       </c>
       <c r="V28" t="n">
-        <v>859.8337518574599</v>
+        <v>859.8337518574554</v>
       </c>
       <c r="W28" t="n">
-        <v>684.5547626701685</v>
+        <v>684.5547626701645</v>
       </c>
       <c r="X28" t="n">
-        <v>564.1797108608538</v>
+        <v>564.1797108608502</v>
       </c>
       <c r="Y28" t="n">
-        <v>453.0219643484404</v>
+        <v>453.0219643484371</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1746.961357696815</v>
+        <v>1746.961357696811</v>
       </c>
       <c r="C29" t="n">
-        <v>1475.905011324932</v>
+        <v>1475.905011324929</v>
       </c>
       <c r="D29" t="n">
-        <v>1213.958458847465</v>
+        <v>1213.958458847462</v>
       </c>
       <c r="E29" t="n">
-        <v>930.0501512488817</v>
+        <v>930.0501512488797</v>
       </c>
       <c r="F29" t="n">
-        <v>626.7763728543615</v>
+        <v>626.77637285436</v>
       </c>
       <c r="G29" t="n">
-        <v>322.1506242346206</v>
+        <v>322.1506242346202</v>
       </c>
       <c r="H29" t="n">
-        <v>106.3599676182775</v>
+        <v>106.359967618277</v>
       </c>
       <c r="I29" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="J29" t="n">
-        <v>298.2325446394741</v>
+        <v>189.5615928488411</v>
       </c>
       <c r="K29" t="n">
-        <v>613.2792872740035</v>
+        <v>613.2792872740039</v>
       </c>
       <c r="L29" t="n">
-        <v>1162.763588540542</v>
+        <v>1054.092636749909</v>
       </c>
       <c r="M29" t="n">
-        <v>1768.073985623339</v>
+        <v>1659.403033832706</v>
       </c>
       <c r="N29" t="n">
-        <v>2251.478747966646</v>
+        <v>2251.478747966647</v>
       </c>
       <c r="O29" t="n">
-        <v>2655.701167980517</v>
+        <v>2690.973132845525</v>
       </c>
       <c r="P29" t="n">
-        <v>3077.209143375725</v>
+        <v>3112.481108240734</v>
       </c>
       <c r="Q29" t="n">
-        <v>3322.34864049904</v>
+        <v>3379.175562616018</v>
       </c>
       <c r="R29" t="n">
-        <v>3379.175562616025</v>
+        <v>3379.175562616018</v>
       </c>
       <c r="S29" t="n">
-        <v>3316.515313602669</v>
+        <v>3316.515313602663</v>
       </c>
       <c r="T29" t="n">
-        <v>3205.663893827649</v>
+        <v>3205.663893827643</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.704035887413</v>
+        <v>3061.704035887408</v>
       </c>
       <c r="V29" t="n">
-        <v>2835.602174078664</v>
+        <v>2835.602174078659</v>
       </c>
       <c r="W29" t="n">
-        <v>2583.944656231575</v>
+        <v>2583.94465623157</v>
       </c>
       <c r="X29" t="n">
-        <v>2312.791928048377</v>
+        <v>2312.791928048373</v>
       </c>
       <c r="Y29" t="n">
-        <v>2030.127484919525</v>
+        <v>2030.127484919521</v>
       </c>
     </row>
     <row r="30">
@@ -6525,31 +6525,31 @@
         <v>631.8596104600399</v>
       </c>
       <c r="E30" t="n">
-        <v>484.8316005169112</v>
+        <v>484.8316005169111</v>
       </c>
       <c r="F30" t="n">
-        <v>350.1378024667855</v>
+        <v>350.1378024667854</v>
       </c>
       <c r="G30" t="n">
-        <v>221.7307725433592</v>
+        <v>221.7307725433591</v>
       </c>
       <c r="H30" t="n">
-        <v>124.8976390257705</v>
+        <v>124.8976390257703</v>
       </c>
       <c r="I30" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="J30" t="n">
-        <v>67.58351125232051</v>
+        <v>157.6051278213232</v>
       </c>
       <c r="K30" t="n">
-        <v>67.58351125232051</v>
+        <v>437.9730279657284</v>
       </c>
       <c r="L30" t="n">
-        <v>501.8162289040789</v>
+        <v>872.2057456174869</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.681843867987</v>
+        <v>923.8613981070768</v>
       </c>
       <c r="N30" t="n">
         <v>1517.072228096251</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>380.3440079593701</v>
+        <v>380.3440079593671</v>
       </c>
       <c r="C31" t="n">
-        <v>321.6054507163599</v>
+        <v>321.6054507163573</v>
       </c>
       <c r="D31" t="n">
-        <v>279.4109698394322</v>
+        <v>279.41096983943</v>
       </c>
       <c r="E31" t="n">
-        <v>238.2793678960605</v>
+        <v>238.2793678960588</v>
       </c>
       <c r="F31" t="n">
-        <v>196.6761252171472</v>
+        <v>196.6761252171458</v>
       </c>
       <c r="G31" t="n">
-        <v>138.9032985741053</v>
+        <v>138.9032985741044</v>
       </c>
       <c r="H31" t="n">
-        <v>92.80425183537078</v>
+        <v>92.80425183537024</v>
       </c>
       <c r="I31" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="J31" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="K31" t="n">
-        <v>131.8767139278723</v>
+        <v>240.5476657185054</v>
       </c>
       <c r="L31" t="n">
-        <v>355.1396021199991</v>
+        <v>489.0970701629251</v>
       </c>
       <c r="M31" t="n">
-        <v>623.2102168812426</v>
+        <v>757.167684924169</v>
       </c>
       <c r="N31" t="n">
-        <v>890.7251214020689</v>
+        <v>1024.682589444996</v>
       </c>
       <c r="O31" t="n">
-        <v>1135.195619856292</v>
+        <v>1269.153087899219</v>
       </c>
       <c r="P31" t="n">
-        <v>1338.782367944765</v>
+        <v>1364.06888419706</v>
       </c>
       <c r="Q31" t="n">
-        <v>1431.801534747027</v>
+        <v>1431.801534747021</v>
       </c>
       <c r="R31" t="n">
-        <v>1405.275301525151</v>
+        <v>1405.275301525144</v>
       </c>
       <c r="S31" t="n">
-        <v>1307.13977016062</v>
+        <v>1307.139770160614</v>
       </c>
       <c r="T31" t="n">
-        <v>1185.989770690566</v>
+        <v>1185.98977069056</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.691644003728</v>
+        <v>1009.691644003723</v>
       </c>
       <c r="V31" t="n">
-        <v>859.8337518574599</v>
+        <v>859.8337518574554</v>
       </c>
       <c r="W31" t="n">
-        <v>684.5547626701685</v>
+        <v>684.5547626701643</v>
       </c>
       <c r="X31" t="n">
-        <v>564.1797108608538</v>
+        <v>564.17971086085</v>
       </c>
       <c r="Y31" t="n">
-        <v>453.0219643484404</v>
+        <v>453.021964348437</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1746.961357696816</v>
+        <v>1746.961357696813</v>
       </c>
       <c r="C32" t="n">
-        <v>1475.905011324933</v>
+        <v>1475.90501132493</v>
       </c>
       <c r="D32" t="n">
-        <v>1213.958458847466</v>
+        <v>1213.958458847463</v>
       </c>
       <c r="E32" t="n">
-        <v>930.050151248882</v>
+        <v>930.0501512488802</v>
       </c>
       <c r="F32" t="n">
-        <v>626.7763728543619</v>
+        <v>626.7763728543605</v>
       </c>
       <c r="G32" t="n">
-        <v>322.1506242346209</v>
+        <v>322.15062423462</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3599676182776</v>
+        <v>106.359967618277</v>
       </c>
       <c r="I32" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="J32" t="n">
-        <v>298.232544639474</v>
+        <v>298.2325446394743</v>
       </c>
       <c r="K32" t="n">
-        <v>721.9502390646363</v>
+        <v>613.2792872740038</v>
       </c>
       <c r="L32" t="n">
-        <v>1198.035553405557</v>
+        <v>1054.092636749909</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.674998697722</v>
+        <v>1637.848076580728</v>
       </c>
       <c r="N32" t="n">
-        <v>2178.079761041029</v>
+        <v>2229.923790714669</v>
       </c>
       <c r="O32" t="n">
-        <v>2690.973132845533</v>
+        <v>2634.14621072854</v>
       </c>
       <c r="P32" t="n">
-        <v>3112.481108240741</v>
+        <v>3055.654186123748</v>
       </c>
       <c r="Q32" t="n">
-        <v>3379.175562616025</v>
+        <v>3322.348640499033</v>
       </c>
       <c r="R32" t="n">
-        <v>3379.175562616025</v>
+        <v>3379.175562616018</v>
       </c>
       <c r="S32" t="n">
-        <v>3316.515313602669</v>
+        <v>3316.515313602662</v>
       </c>
       <c r="T32" t="n">
-        <v>3205.66389382765</v>
+        <v>3205.663893827642</v>
       </c>
       <c r="U32" t="n">
-        <v>3061.704035887414</v>
+        <v>3061.704035887408</v>
       </c>
       <c r="V32" t="n">
-        <v>2835.602174078665</v>
+        <v>2835.60217407866</v>
       </c>
       <c r="W32" t="n">
-        <v>2583.944656231575</v>
+        <v>2583.944656231571</v>
       </c>
       <c r="X32" t="n">
-        <v>2312.791928048378</v>
+        <v>2312.791928048374</v>
       </c>
       <c r="Y32" t="n">
-        <v>2030.127484919525</v>
+        <v>2030.127484919522</v>
       </c>
     </row>
     <row r="33">
@@ -6762,40 +6762,40 @@
         <v>631.8596104600399</v>
       </c>
       <c r="E33" t="n">
-        <v>484.8316005169112</v>
+        <v>484.8316005169111</v>
       </c>
       <c r="F33" t="n">
-        <v>350.1378024667855</v>
+        <v>350.1378024667854</v>
       </c>
       <c r="G33" t="n">
-        <v>221.7307725433592</v>
+        <v>221.7307725433591</v>
       </c>
       <c r="H33" t="n">
-        <v>124.8976390257705</v>
+        <v>124.8976390257703</v>
       </c>
       <c r="I33" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="J33" t="n">
-        <v>157.6051278213234</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="K33" t="n">
-        <v>437.9730279657285</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="L33" t="n">
-        <v>872.2057456174869</v>
+        <v>501.8162289040787</v>
       </c>
       <c r="M33" t="n">
-        <v>1437.071360581395</v>
+        <v>1066.681843867987</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.062624323734</v>
+        <v>1659.892673857161</v>
       </c>
       <c r="O33" t="n">
-        <v>2182.226409054187</v>
+        <v>1984.236012826704</v>
       </c>
       <c r="P33" t="n">
-        <v>2544.487414000135</v>
+        <v>2346.497017772652</v>
       </c>
       <c r="Q33" t="n">
         <v>2544.487414000135</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.3440079593705</v>
+        <v>380.3440079593671</v>
       </c>
       <c r="C34" t="n">
-        <v>321.6054507163603</v>
+        <v>321.6054507163573</v>
       </c>
       <c r="D34" t="n">
-        <v>279.4109698394325</v>
+        <v>279.41096983943</v>
       </c>
       <c r="E34" t="n">
-        <v>238.2793678960608</v>
+        <v>238.2793678960588</v>
       </c>
       <c r="F34" t="n">
-        <v>196.6761252171473</v>
+        <v>196.6761252171458</v>
       </c>
       <c r="G34" t="n">
-        <v>138.9032985741054</v>
+        <v>138.9032985741044</v>
       </c>
       <c r="H34" t="n">
-        <v>92.80425183537083</v>
+        <v>92.80425183537024</v>
       </c>
       <c r="I34" t="n">
-        <v>67.58351125232051</v>
+        <v>67.58351125232036</v>
       </c>
       <c r="J34" t="n">
-        <v>136.0675175830493</v>
+        <v>136.0675175830496</v>
       </c>
       <c r="K34" t="n">
-        <v>309.0316720492339</v>
+        <v>309.0316720492346</v>
       </c>
       <c r="L34" t="n">
-        <v>448.9101247030204</v>
+        <v>463.8105539106242</v>
       </c>
       <c r="M34" t="n">
-        <v>716.9807394642637</v>
+        <v>623.2102168812347</v>
       </c>
       <c r="N34" t="n">
-        <v>984.4956439850901</v>
+        <v>890.7251214020615</v>
       </c>
       <c r="O34" t="n">
-        <v>1135.195619856293</v>
+        <v>1135.195619856285</v>
       </c>
       <c r="P34" t="n">
-        <v>1338.782367944767</v>
+        <v>1338.782367944759</v>
       </c>
       <c r="Q34" t="n">
-        <v>1431.801534747028</v>
+        <v>1431.801534747021</v>
       </c>
       <c r="R34" t="n">
-        <v>1405.275301525151</v>
+        <v>1405.275301525144</v>
       </c>
       <c r="S34" t="n">
-        <v>1307.139770160621</v>
+        <v>1307.139770160614</v>
       </c>
       <c r="T34" t="n">
-        <v>1185.989770690567</v>
+        <v>1185.98977069056</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.691644003728</v>
+        <v>1009.691644003723</v>
       </c>
       <c r="V34" t="n">
-        <v>859.8337518574606</v>
+        <v>859.8337518574554</v>
       </c>
       <c r="W34" t="n">
-        <v>684.5547626701691</v>
+        <v>684.5547626701643</v>
       </c>
       <c r="X34" t="n">
-        <v>564.1797108608544</v>
+        <v>564.17971086085</v>
       </c>
       <c r="Y34" t="n">
-        <v>453.0219643484409</v>
+        <v>453.021964348437</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1463.65581934962</v>
+        <v>1463.655819349619</v>
       </c>
       <c r="C35" t="n">
-        <v>1231.375929343694</v>
+        <v>1231.375929343693</v>
       </c>
       <c r="D35" t="n">
-        <v>1008.205833232184</v>
+        <v>1008.205833232183</v>
       </c>
       <c r="E35" t="n">
-        <v>763.0739819995574</v>
+        <v>763.0739819995567</v>
       </c>
       <c r="F35" t="n">
-        <v>498.5766599709943</v>
+        <v>498.5766599709937</v>
       </c>
       <c r="G35" t="n">
         <v>232.7273677172102</v>
       </c>
       <c r="H35" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I35" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J35" t="n">
         <v>177.6912490633442</v>
@@ -6944,25 +6944,25 @@
         <v>933.551341173779</v>
       </c>
       <c r="M35" t="n">
-        <v>1430.190786465943</v>
+        <v>1427.170664794768</v>
       </c>
       <c r="N35" t="n">
-        <v>1910.575427138076</v>
+        <v>1910.575427138075</v>
       </c>
       <c r="O35" t="n">
-        <v>2314.797847151947</v>
+        <v>2314.797847151946</v>
       </c>
       <c r="P35" t="n">
         <v>2627.634870756522</v>
       </c>
       <c r="Q35" t="n">
-        <v>2785.658373341174</v>
+        <v>2785.658373341173</v>
       </c>
       <c r="R35" t="n">
-        <v>2785.658373341174</v>
+        <v>2785.658373341173</v>
       </c>
       <c r="S35" t="n">
-        <v>2761.774580693775</v>
+        <v>2761.774580693774</v>
       </c>
       <c r="T35" t="n">
         <v>2689.699617284711</v>
@@ -7011,28 +7011,28 @@
         <v>113.0272952402734</v>
       </c>
       <c r="I36" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J36" t="n">
         <v>145.7347840358263</v>
       </c>
       <c r="K36" t="n">
-        <v>426.1026841802316</v>
+        <v>145.7347840358263</v>
       </c>
       <c r="L36" t="n">
-        <v>709.3864443036196</v>
+        <v>545.1158355851549</v>
       </c>
       <c r="M36" t="n">
-        <v>1274.252059267527</v>
+        <v>1109.981450549063</v>
       </c>
       <c r="N36" t="n">
-        <v>1867.462889256702</v>
+        <v>1703.192280538237</v>
       </c>
       <c r="O36" t="n">
-        <v>2334.626673987155</v>
+        <v>2170.35606526869</v>
       </c>
       <c r="P36" t="n">
-        <v>2334.626673987155</v>
+        <v>2532.617070214638</v>
       </c>
       <c r="Q36" t="n">
         <v>2532.617070214638</v>
@@ -7081,31 +7081,31 @@
         <v>84.85891442964217</v>
       </c>
       <c r="F37" t="n">
-        <v>82.03212811668583</v>
+        <v>82.03212811668581</v>
       </c>
       <c r="G37" t="n">
-        <v>63.03575783960097</v>
+        <v>63.03575783960096</v>
       </c>
       <c r="H37" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I37" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J37" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="K37" t="n">
         <v>120.0063701423752</v>
       </c>
       <c r="L37" t="n">
-        <v>259.8848227961618</v>
+        <v>276.3548693709702</v>
       </c>
       <c r="M37" t="n">
-        <v>419.2844857667723</v>
+        <v>435.7545323415808</v>
       </c>
       <c r="N37" t="n">
-        <v>578.1284384969658</v>
+        <v>594.5984850717743</v>
       </c>
       <c r="O37" t="n">
         <v>730.3980317353642</v>
@@ -7157,49 +7157,49 @@
         <v>1008.205833232184</v>
       </c>
       <c r="E38" t="n">
-        <v>763.0739819995574</v>
+        <v>763.0739819995572</v>
       </c>
       <c r="F38" t="n">
-        <v>498.5766599709943</v>
+        <v>498.5766599709941</v>
       </c>
       <c r="G38" t="n">
         <v>232.7273677172102</v>
       </c>
       <c r="H38" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I38" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J38" t="n">
         <v>177.6912490633442</v>
       </c>
       <c r="K38" t="n">
-        <v>489.717870026699</v>
+        <v>492.7379916978737</v>
       </c>
       <c r="L38" t="n">
-        <v>930.5312195026042</v>
+        <v>933.551341173779</v>
       </c>
       <c r="M38" t="n">
-        <v>1427.170664794768</v>
+        <v>1430.190786465943</v>
       </c>
       <c r="N38" t="n">
-        <v>1910.575427138076</v>
+        <v>1913.59554880925</v>
       </c>
       <c r="O38" t="n">
-        <v>2314.797847151947</v>
+        <v>2317.817968823121</v>
       </c>
       <c r="P38" t="n">
-        <v>2627.634870756522</v>
+        <v>2630.654992427696</v>
       </c>
       <c r="Q38" t="n">
-        <v>2785.658373341174</v>
+        <v>2785.658373341173</v>
       </c>
       <c r="R38" t="n">
-        <v>2785.658373341174</v>
+        <v>2785.658373341173</v>
       </c>
       <c r="S38" t="n">
-        <v>2761.774580693775</v>
+        <v>2761.774580693774</v>
       </c>
       <c r="T38" t="n">
         <v>2689.699617284711</v>
@@ -7248,7 +7248,7 @@
         <v>113.0272952402734</v>
       </c>
       <c r="I39" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J39" t="n">
         <v>145.7347840358263</v>
@@ -7266,7 +7266,7 @@
         <v>1738.043946640667</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.20773137112</v>
+        <v>1972.365669041207</v>
       </c>
       <c r="P39" t="n">
         <v>2334.626673987155</v>
@@ -7318,19 +7318,19 @@
         <v>84.85891442964217</v>
       </c>
       <c r="F40" t="n">
-        <v>82.03212811668583</v>
+        <v>82.03212811668581</v>
       </c>
       <c r="G40" t="n">
-        <v>63.03575783960097</v>
+        <v>63.03575783960096</v>
       </c>
       <c r="H40" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I40" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J40" t="n">
-        <v>55.71316746682347</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="K40" t="n">
         <v>120.0063701423752</v>
@@ -7348,7 +7348,7 @@
         <v>713.9279851605556</v>
       </c>
       <c r="P40" t="n">
-        <v>808.8437814583965</v>
+        <v>825.313828033205</v>
       </c>
       <c r="Q40" t="n">
         <v>825.313828033205</v>
@@ -7394,40 +7394,40 @@
         <v>1008.205833232184</v>
       </c>
       <c r="E41" t="n">
-        <v>763.0739819995572</v>
+        <v>763.0739819995578</v>
       </c>
       <c r="F41" t="n">
-        <v>498.5766599709941</v>
+        <v>498.5766599709948</v>
       </c>
       <c r="G41" t="n">
-        <v>232.7273677172102</v>
+        <v>232.7273677172101</v>
       </c>
       <c r="H41" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I41" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J41" t="n">
-        <v>177.6912490633442</v>
+        <v>174.671127392169</v>
       </c>
       <c r="K41" t="n">
-        <v>492.7379916978737</v>
+        <v>489.7178700266985</v>
       </c>
       <c r="L41" t="n">
-        <v>933.5513411737791</v>
+        <v>930.5312195026038</v>
       </c>
       <c r="M41" t="n">
-        <v>1430.190786465943</v>
+        <v>1427.170664794768</v>
       </c>
       <c r="N41" t="n">
-        <v>1913.595548809251</v>
+        <v>1910.575427138075</v>
       </c>
       <c r="O41" t="n">
-        <v>2317.817968823122</v>
+        <v>2314.797847151946</v>
       </c>
       <c r="P41" t="n">
-        <v>2630.654992427697</v>
+        <v>2627.634870756522</v>
       </c>
       <c r="Q41" t="n">
         <v>2785.658373341173</v>
@@ -7442,7 +7442,7 @@
         <v>2689.699617284711</v>
       </c>
       <c r="U41" t="n">
-        <v>2584.516215710433</v>
+        <v>2584.516215710432</v>
       </c>
       <c r="V41" t="n">
         <v>2397.19081026764</v>
@@ -7485,28 +7485,28 @@
         <v>113.0272952402734</v>
       </c>
       <c r="I42" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J42" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="K42" t="n">
         <v>336.0810676112287</v>
       </c>
       <c r="L42" t="n">
-        <v>770.313785262987</v>
+        <v>545.1158355851549</v>
       </c>
       <c r="M42" t="n">
-        <v>1335.179400226895</v>
+        <v>1109.981450549063</v>
       </c>
       <c r="N42" t="n">
-        <v>1505.201884310754</v>
+        <v>1703.192280538237</v>
       </c>
       <c r="O42" t="n">
-        <v>1972.365669041207</v>
+        <v>2170.35606526869</v>
       </c>
       <c r="P42" t="n">
-        <v>2334.626673987155</v>
+        <v>2532.617070214638</v>
       </c>
       <c r="Q42" t="n">
         <v>2532.617070214638</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.5941853950807</v>
+        <v>110.5941853950802</v>
       </c>
       <c r="C43" t="n">
-        <v>90.6320845180275</v>
+        <v>90.63208451802709</v>
       </c>
       <c r="D43" t="n">
-        <v>87.21406000705676</v>
+        <v>87.21406000705643</v>
       </c>
       <c r="E43" t="n">
-        <v>84.85891442964214</v>
+        <v>84.8589144296419</v>
       </c>
       <c r="F43" t="n">
-        <v>82.0321281166858</v>
+        <v>82.03212811668564</v>
       </c>
       <c r="G43" t="n">
-        <v>63.03575783960095</v>
+        <v>63.03575783960088</v>
       </c>
       <c r="H43" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I43" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J43" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="K43" t="n">
         <v>120.0063701423752</v>
@@ -7576,43 +7576,43 @@
         <v>259.8848227961618</v>
       </c>
       <c r="M43" t="n">
-        <v>419.2844857667724</v>
+        <v>419.2844857667723</v>
       </c>
       <c r="N43" t="n">
-        <v>578.1284384969659</v>
+        <v>578.1284384969658</v>
       </c>
       <c r="O43" t="n">
-        <v>713.9279851605557</v>
+        <v>713.9279851605556</v>
       </c>
       <c r="P43" t="n">
-        <v>808.8437814583966</v>
+        <v>825.3138280332038</v>
       </c>
       <c r="Q43" t="n">
-        <v>825.313828033205</v>
+        <v>825.3138280332038</v>
       </c>
       <c r="R43" t="n">
-        <v>825.313828033205</v>
+        <v>825.3138280332038</v>
       </c>
       <c r="S43" t="n">
-        <v>765.9547530346312</v>
+        <v>765.95475303463</v>
       </c>
       <c r="T43" t="n">
-        <v>683.5812099305342</v>
+        <v>683.5812099305332</v>
       </c>
       <c r="U43" t="n">
-        <v>546.0595396096533</v>
+        <v>546.0595396096523</v>
       </c>
       <c r="V43" t="n">
-        <v>434.9781038293424</v>
+        <v>434.9781038293416</v>
       </c>
       <c r="W43" t="n">
-        <v>298.475571008008</v>
+        <v>298.4755710080073</v>
       </c>
       <c r="X43" t="n">
-        <v>216.8769755646504</v>
+        <v>216.8769755646497</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.495685418194</v>
+        <v>144.4956854181934</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1463.655819349619</v>
+        <v>1463.65581934962</v>
       </c>
       <c r="C44" t="n">
-        <v>1231.375929343693</v>
+        <v>1231.375929343694</v>
       </c>
       <c r="D44" t="n">
-        <v>1008.205833232183</v>
+        <v>1008.205833232184</v>
       </c>
       <c r="E44" t="n">
-        <v>763.0739819995565</v>
+        <v>763.073981999557</v>
       </c>
       <c r="F44" t="n">
-        <v>498.5766599709937</v>
+        <v>498.5766599709941</v>
       </c>
       <c r="G44" t="n">
         <v>232.7273677172102</v>
       </c>
       <c r="H44" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I44" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J44" t="n">
         <v>177.6912490633442</v>
@@ -7652,19 +7652,19 @@
         <v>492.7379916978737</v>
       </c>
       <c r="L44" t="n">
-        <v>933.5513411737791</v>
+        <v>933.551341173779</v>
       </c>
       <c r="M44" t="n">
-        <v>1430.190786465943</v>
+        <v>1427.170664794768</v>
       </c>
       <c r="N44" t="n">
-        <v>1913.595548809251</v>
+        <v>1910.575427138075</v>
       </c>
       <c r="O44" t="n">
-        <v>2317.817968823122</v>
+        <v>2314.797847151946</v>
       </c>
       <c r="P44" t="n">
-        <v>2627.634870756521</v>
+        <v>2627.634870756522</v>
       </c>
       <c r="Q44" t="n">
         <v>2785.658373341173</v>
@@ -7679,19 +7679,19 @@
         <v>2689.699617284711</v>
       </c>
       <c r="U44" t="n">
-        <v>2584.516215710432</v>
+        <v>2584.516215710433</v>
       </c>
       <c r="V44" t="n">
-        <v>2397.19081026764</v>
+        <v>2397.190810267641</v>
       </c>
       <c r="W44" t="n">
-        <v>2184.309748786507</v>
+        <v>2184.309748786508</v>
       </c>
       <c r="X44" t="n">
-        <v>1951.933476969267</v>
+        <v>1951.933476969268</v>
       </c>
       <c r="Y44" t="n">
-        <v>1708.045490206371</v>
+        <v>1708.045490206372</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>113.0272952402734</v>
       </c>
       <c r="I45" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J45" t="n">
         <v>145.7347840358263</v>
       </c>
       <c r="K45" t="n">
-        <v>426.1026841802315</v>
+        <v>347.125439357672</v>
       </c>
       <c r="L45" t="n">
-        <v>860.3354018319899</v>
+        <v>347.125439357672</v>
       </c>
       <c r="M45" t="n">
-        <v>911.9910543215796</v>
+        <v>911.9910543215798</v>
       </c>
       <c r="N45" t="n">
         <v>1505.201884310754</v>
@@ -7783,28 +7783,28 @@
         <v>110.5941853950807</v>
       </c>
       <c r="C46" t="n">
-        <v>90.6320845180275</v>
+        <v>90.63208451802753</v>
       </c>
       <c r="D46" t="n">
-        <v>87.21406000705676</v>
+        <v>87.21406000705679</v>
       </c>
       <c r="E46" t="n">
-        <v>84.85891442964214</v>
+        <v>84.85891442964217</v>
       </c>
       <c r="F46" t="n">
-        <v>82.0321281166858</v>
+        <v>82.03212811668581</v>
       </c>
       <c r="G46" t="n">
-        <v>63.03575783960095</v>
+        <v>63.03575783960096</v>
       </c>
       <c r="H46" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="I46" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="J46" t="n">
-        <v>55.71316746682345</v>
+        <v>55.71316746682346</v>
       </c>
       <c r="K46" t="n">
         <v>120.0063701423752</v>
@@ -7813,16 +7813,16 @@
         <v>259.8848227961618</v>
       </c>
       <c r="M46" t="n">
-        <v>419.2844857667724</v>
+        <v>419.2844857667723</v>
       </c>
       <c r="N46" t="n">
-        <v>578.1284384969659</v>
+        <v>578.1284384969658</v>
       </c>
       <c r="O46" t="n">
-        <v>713.9279851605557</v>
+        <v>713.9279851605556</v>
       </c>
       <c r="P46" t="n">
-        <v>825.313828033205</v>
+        <v>808.8437814583965</v>
       </c>
       <c r="Q46" t="n">
         <v>825.313828033205</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>96.61541629286691</v>
       </c>
       <c r="K11" t="n">
-        <v>103.1600033783429</v>
+        <v>251.5393006970543</v>
       </c>
       <c r="L11" t="n">
         <v>97.69356934396403</v>
@@ -8699,16 +8699,16 @@
         <v>82.71158819506208</v>
       </c>
       <c r="N11" t="n">
-        <v>99.43735376886113</v>
+        <v>228.642660323677</v>
       </c>
       <c r="O11" t="n">
-        <v>235.114058198796</v>
+        <v>235.1140581987944</v>
       </c>
       <c r="P11" t="n">
-        <v>250.7206244016653</v>
+        <v>102.3413270829523</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.7690855961331</v>
+        <v>258.7739624721432</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.98742011525589</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>60.60490898058936</v>
       </c>
       <c r="L12" t="n">
-        <v>185.8577163702736</v>
+        <v>43.47354217554907</v>
       </c>
       <c r="M12" t="n">
         <v>34.84525462862835</v>
       </c>
       <c r="N12" t="n">
-        <v>172.3215253904086</v>
+        <v>172.321525390407</v>
       </c>
       <c r="O12" t="n">
-        <v>188.5177015396202</v>
+        <v>188.5177015396186</v>
       </c>
       <c r="P12" t="n">
-        <v>48.08139221580929</v>
+        <v>99.5346405832567</v>
       </c>
       <c r="Q12" t="n">
-        <v>221.4894721556365</v>
+        <v>221.4894721556349</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8854,13 +8854,13 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M13" t="n">
-        <v>71.05279860590502</v>
+        <v>208.0870304409001</v>
       </c>
       <c r="N13" t="n">
-        <v>211.1568646941563</v>
+        <v>211.2938921153061</v>
       </c>
       <c r="O13" t="n">
-        <v>211.9541662756472</v>
+        <v>74.78290701949589</v>
       </c>
       <c r="P13" t="n">
         <v>175.5085323082534</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>96.61541629286691</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>251.5393006970559</v>
+        <v>251.5393006970543</v>
       </c>
       <c r="L14" t="n">
-        <v>240.0777435386885</v>
+        <v>116.867560107858</v>
       </c>
       <c r="M14" t="n">
-        <v>82.71158819506208</v>
+        <v>231.0908855137734</v>
       </c>
       <c r="N14" t="n">
         <v>80.26336300496565</v>
@@ -8942,10 +8942,10 @@
         <v>86.73476088008303</v>
       </c>
       <c r="P14" t="n">
-        <v>250.7206244016653</v>
+        <v>250.7206244016637</v>
       </c>
       <c r="Q14" t="n">
-        <v>264.7690855961331</v>
+        <v>116.3897882774202</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525589</v>
       </c>
       <c r="K15" t="n">
-        <v>60.60490898058936</v>
+        <v>208.9842062993007</v>
       </c>
       <c r="L15" t="n">
-        <v>43.47354217554907</v>
+        <v>185.8577163702721</v>
       </c>
       <c r="M15" t="n">
-        <v>183.2245519473413</v>
+        <v>34.84525462862835</v>
       </c>
       <c r="N15" t="n">
-        <v>172.3215253904086</v>
+        <v>172.321525390407</v>
       </c>
       <c r="O15" t="n">
-        <v>188.5177015396202</v>
+        <v>188.5177015396186</v>
       </c>
       <c r="P15" t="n">
         <v>48.08139221580929</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.5634232043724</v>
+        <v>73.11017483692351</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9088,19 +9088,19 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L16" t="n">
-        <v>211.2171120040207</v>
+        <v>158.5753289791439</v>
       </c>
       <c r="M16" t="n">
-        <v>219.432095924618</v>
+        <v>219.4320959246164</v>
       </c>
       <c r="N16" t="n">
-        <v>211.2938921153077</v>
+        <v>211.2938921153061</v>
       </c>
       <c r="O16" t="n">
-        <v>74.78290701949589</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P16" t="n">
-        <v>164.1634668245403</v>
+        <v>79.63399059326269</v>
       </c>
       <c r="Q16" t="n">
         <v>84.9458458910769</v>
@@ -9164,25 +9164,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>103.1600033783429</v>
+        <v>122.3339941422369</v>
       </c>
       <c r="L17" t="n">
-        <v>246.072866662677</v>
+        <v>97.69356934396403</v>
       </c>
       <c r="M17" t="n">
-        <v>101.8855789589576</v>
+        <v>231.0908855137734</v>
       </c>
       <c r="N17" t="n">
-        <v>228.6426603236786</v>
+        <v>80.26336300496565</v>
       </c>
       <c r="O17" t="n">
-        <v>235.114058198796</v>
+        <v>235.1140581987943</v>
       </c>
       <c r="P17" t="n">
         <v>102.3413270829523</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.3897882774202</v>
+        <v>264.7690855961315</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525589</v>
       </c>
       <c r="K18" t="n">
         <v>60.60490898058936</v>
       </c>
       <c r="L18" t="n">
-        <v>191.852839494262</v>
+        <v>191.8528394942604</v>
       </c>
       <c r="M18" t="n">
-        <v>86.2985029960772</v>
+        <v>183.2245519473397</v>
       </c>
       <c r="N18" t="n">
-        <v>172.3215253904086</v>
+        <v>23.94222807169564</v>
       </c>
       <c r="O18" t="n">
         <v>40.13840422090723</v>
       </c>
       <c r="P18" t="n">
-        <v>48.08139221580929</v>
+        <v>196.4606895345206</v>
       </c>
       <c r="Q18" t="n">
-        <v>221.4894721556365</v>
+        <v>215.4943490316465</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9322,19 +9322,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>138.7668962480483</v>
+        <v>73.82426728284447</v>
       </c>
       <c r="L19" t="n">
-        <v>69.92574568706465</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M19" t="n">
-        <v>219.432095924618</v>
+        <v>219.4320959246164</v>
       </c>
       <c r="N19" t="n">
-        <v>211.2938921153077</v>
+        <v>127.7201963406423</v>
       </c>
       <c r="O19" t="n">
-        <v>204.7292078527388</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P19" t="n">
         <v>175.5085323082534</v>
@@ -9401,25 +9401,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>251.5393006970559</v>
+        <v>103.1600033783429</v>
       </c>
       <c r="L20" t="n">
-        <v>246.072866662677</v>
+        <v>116.8675601078581</v>
       </c>
       <c r="M20" t="n">
-        <v>231.090885513775</v>
+        <v>231.0908855137734</v>
       </c>
       <c r="N20" t="n">
         <v>80.26336300496565</v>
       </c>
       <c r="O20" t="n">
-        <v>105.9087516439785</v>
+        <v>86.73476088008303</v>
       </c>
       <c r="P20" t="n">
-        <v>102.3413270829523</v>
+        <v>250.7206244016637</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.3897882774202</v>
+        <v>264.7690855961315</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>72.98742011525589</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>60.60490898058936</v>
+        <v>208.9842062993007</v>
       </c>
       <c r="L21" t="n">
-        <v>191.852839494262</v>
+        <v>43.47354217554907</v>
       </c>
       <c r="M21" t="n">
         <v>34.84525462862835</v>
       </c>
       <c r="N21" t="n">
-        <v>166.3264022664201</v>
+        <v>172.321525390407</v>
       </c>
       <c r="O21" t="n">
-        <v>188.5177015396202</v>
+        <v>91.59165258835465</v>
       </c>
       <c r="P21" t="n">
-        <v>48.08139221580929</v>
+        <v>196.4606895345206</v>
       </c>
       <c r="Q21" t="n">
-        <v>221.4894721556365</v>
+        <v>73.11017483692351</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9559,19 +9559,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480483</v>
+        <v>127.421830764332</v>
       </c>
       <c r="L22" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M22" t="n">
-        <v>71.05279860590502</v>
+        <v>219.4320959246164</v>
       </c>
       <c r="N22" t="n">
-        <v>211.2938921153077</v>
+        <v>211.2938921153061</v>
       </c>
       <c r="O22" t="n">
-        <v>211.8171388544957</v>
+        <v>74.78290701949589</v>
       </c>
       <c r="P22" t="n">
         <v>175.5085323082534</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>96.61541629286691</v>
       </c>
       <c r="K23" t="n">
-        <v>122.3339941422383</v>
+        <v>251.5393006970543</v>
       </c>
       <c r="L23" t="n">
-        <v>246.0728666626769</v>
+        <v>97.69356934396403</v>
       </c>
       <c r="M23" t="n">
         <v>82.71158819506208</v>
       </c>
       <c r="N23" t="n">
-        <v>228.6426603236785</v>
+        <v>228.642660323677</v>
       </c>
       <c r="O23" t="n">
-        <v>86.73476088008303</v>
+        <v>235.1140581987944</v>
       </c>
       <c r="P23" t="n">
-        <v>250.7206244016652</v>
+        <v>244.7255012776754</v>
       </c>
       <c r="Q23" t="n">
         <v>116.3897882774202</v>
@@ -9717,25 +9717,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>60.60490898058936</v>
+        <v>208.9842062993007</v>
       </c>
       <c r="L24" t="n">
-        <v>191.8528394942619</v>
+        <v>191.8528394942604</v>
       </c>
       <c r="M24" t="n">
         <v>34.84525462862835</v>
       </c>
       <c r="N24" t="n">
-        <v>75.3954764391444</v>
+        <v>23.94222807169564</v>
       </c>
       <c r="O24" t="n">
-        <v>40.13840422090723</v>
+        <v>91.59165258835465</v>
       </c>
       <c r="P24" t="n">
-        <v>196.4606895345221</v>
+        <v>196.4606895345206</v>
       </c>
       <c r="Q24" t="n">
-        <v>221.4894721556363</v>
+        <v>73.11017483692351</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9799,16 +9799,16 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L25" t="n">
-        <v>211.2171120040207</v>
+        <v>69.92574568706465</v>
       </c>
       <c r="M25" t="n">
-        <v>219.4320959246179</v>
+        <v>219.4320959246164</v>
       </c>
       <c r="N25" t="n">
-        <v>62.91459479659471</v>
+        <v>204.0689336923946</v>
       </c>
       <c r="O25" t="n">
-        <v>211.8171388544954</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P25" t="n">
         <v>175.5085323082534</v>
@@ -9954,16 +9954,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>60.60490898058936</v>
       </c>
       <c r="L27" t="n">
-        <v>43.47354217554907</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>525.6415881047374</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>387.9510842931724</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,19 +10188,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.98742011525589</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>60.60490898058936</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>87.02268138578987</v>
       </c>
       <c r="N30" t="n">
-        <v>478.8820101204479</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525589</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>60.60490898058936</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>304.7414843770893</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>367.7579385335765</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.11017483692351</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10592,10 +10592,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406823</v>
+        <v>581.3169655900003</v>
       </c>
       <c r="N35" t="n">
-        <v>565.500373784898</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
@@ -10665,10 +10665,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>60.60490898058936</v>
       </c>
       <c r="L36" t="n">
-        <v>329.6187544213955</v>
+        <v>446.8887457607295</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>48.08139221580929</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>73.11017483692351</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,7 +10823,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>418.3384083918326</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>272.9588599071945</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10914,10 +10914,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>276.8270127063012</v>
       </c>
       <c r="P39" t="n">
-        <v>178.807596878471</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>216.7749717730139</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>272.9588599071935</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.98742011525587</v>
+        <v>72.98742011525589</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>254.6197724522422</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>195.6821109846849</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>73.11017483692351</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>581.3169655900003</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>415.2876926722448</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11376,13 +11376,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>264.0298133460901</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>43.47354217554907</v>
       </c>
       <c r="M45" t="n">
-        <v>87.02268138578961</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.1936450202581</v>
+        <v>175.1936450202577</v>
       </c>
       <c r="C11" t="n">
-        <v>40.21264027195057</v>
+        <v>65.5127397499095</v>
       </c>
       <c r="D11" t="n">
-        <v>154.1862660224678</v>
+        <v>154.1862660224675</v>
       </c>
       <c r="E11" t="n">
-        <v>27.54910627366041</v>
+        <v>175.928403592373</v>
       </c>
       <c r="F11" t="n">
-        <v>46.72092236163758</v>
+        <v>195.1002196803502</v>
       </c>
       <c r="G11" t="n">
-        <v>196.438670203319</v>
+        <v>48.05937288460735</v>
       </c>
       <c r="H11" t="n">
-        <v>108.4919291199559</v>
+        <v>108.4919291199555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.6020846470457</v>
+        <v>4.602084647045327</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.7000222604369</v>
       </c>
       <c r="W11" t="n">
-        <v>144.0001217383941</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>163.3003799711408</v>
+        <v>14.92108265242905</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.6969777673395</v>
+        <v>174.6969777673391</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.81434770154524</v>
+        <v>175.1936450202577</v>
       </c>
       <c r="C14" t="n">
-        <v>14.82566465922699</v>
+        <v>14.82566465922815</v>
       </c>
       <c r="D14" t="n">
-        <v>136.5877947111474</v>
+        <v>154.1862660224675</v>
       </c>
       <c r="E14" t="n">
-        <v>175.9284035923735</v>
+        <v>164.1588498412171</v>
       </c>
       <c r="F14" t="n">
-        <v>195.1002196803506</v>
+        <v>195.1002196803502</v>
       </c>
       <c r="G14" t="n">
-        <v>196.4386702033191</v>
+        <v>196.4386702033187</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>108.4919291199555</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.37943843060884</v>
+        <v>37.37943843060839</v>
       </c>
       <c r="V14" t="n">
-        <v>118.7000222604373</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>144.0001217383942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>163.3003799711408</v>
+        <v>14.92108265242905</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.31768044862665</v>
+        <v>174.6969777673391</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>905945.8738574573</v>
+        <v>905945.8738574566</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>905945.8738574571</v>
+        <v>905945.8738574566</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1023950.588706755</v>
+        <v>1023950.588706754</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>421232.1473290172</v>
+        <v>421232.1473290173</v>
       </c>
       <c r="C2" t="n">
         <v>421232.1473290173</v>
       </c>
       <c r="D2" t="n">
-        <v>421232.1473290171</v>
+        <v>421232.1473290172</v>
       </c>
       <c r="E2" t="n">
         <v>368107.7389658717</v>
       </c>
       <c r="F2" t="n">
-        <v>368107.7389658719</v>
+        <v>368107.7389658717</v>
       </c>
       <c r="G2" t="n">
+        <v>422193.2332718</v>
+      </c>
+      <c r="H2" t="n">
+        <v>422193.2332718</v>
+      </c>
+      <c r="I2" t="n">
+        <v>422193.2332718001</v>
+      </c>
+      <c r="J2" t="n">
         <v>422193.2332717997</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>422193.2332717999</v>
+      </c>
+      <c r="L2" t="n">
         <v>422193.2332717997</v>
-      </c>
-      <c r="I2" t="n">
-        <v>422193.2332717998</v>
-      </c>
-      <c r="J2" t="n">
-        <v>422193.2332718002</v>
-      </c>
-      <c r="K2" t="n">
-        <v>422193.2332718002</v>
-      </c>
-      <c r="L2" t="n">
-        <v>422193.2332718002</v>
       </c>
       <c r="M2" t="n">
         <v>422193.2332718006</v>
       </c>
       <c r="N2" t="n">
-        <v>422193.2332718007</v>
+        <v>422193.2332718006</v>
       </c>
       <c r="O2" t="n">
-        <v>422193.2332718007</v>
+        <v>422193.2332718005</v>
       </c>
       <c r="P2" t="n">
-        <v>422193.2332718005</v>
+        <v>422193.2332718006</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>335102.5293101487</v>
+        <v>335102.5293101486</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86793.5432959648</v>
+        <v>86793.54329596495</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183234.0671005399</v>
+        <v>183234.0671005401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86793.54329596476</v>
+        <v>86793.54329596495</v>
       </c>
       <c r="M3" t="n">
-        <v>30710.953441838</v>
+        <v>30710.95344183764</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1021.367241920393</v>
+        <v>1021.367241920575</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>327629.7304511558</v>
       </c>
       <c r="F4" t="n">
-        <v>327629.7304511558</v>
+        <v>327629.7304511557</v>
       </c>
       <c r="G4" t="n">
-        <v>383757.4021159815</v>
+        <v>383757.4021159816</v>
       </c>
       <c r="H4" t="n">
-        <v>383757.4021159815</v>
+        <v>383757.4021159816</v>
       </c>
       <c r="I4" t="n">
-        <v>383757.4021159815</v>
+        <v>383757.4021159816</v>
       </c>
       <c r="J4" t="n">
         <v>382503.2390267602</v>
       </c>
       <c r="K4" t="n">
-        <v>382503.2390267602</v>
+        <v>382503.2390267601</v>
       </c>
       <c r="L4" t="n">
-        <v>382503.2390267602</v>
+        <v>382503.2390267601</v>
       </c>
       <c r="M4" t="n">
         <v>381721.5911019812</v>
       </c>
       <c r="N4" t="n">
+        <v>381721.5911019812</v>
+      </c>
+      <c r="O4" t="n">
         <v>381721.5911019813</v>
-      </c>
-      <c r="O4" t="n">
-        <v>381721.5911019812</v>
       </c>
       <c r="P4" t="n">
         <v>381721.5911019812</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30314.23051159308</v>
+        <v>30314.23051159301</v>
       </c>
       <c r="F5" t="n">
-        <v>30314.23051159307</v>
+        <v>30314.23051159301</v>
       </c>
       <c r="G5" t="n">
-        <v>39435.03850077865</v>
+        <v>39435.0385007786</v>
       </c>
       <c r="H5" t="n">
-        <v>39435.03850077865</v>
+        <v>39435.0385007786</v>
       </c>
       <c r="I5" t="n">
-        <v>39435.03850077865</v>
+        <v>39435.0385007786</v>
       </c>
       <c r="J5" t="n">
-        <v>63817.15411159588</v>
+        <v>63817.15411159584</v>
       </c>
       <c r="K5" t="n">
-        <v>63817.15411159588</v>
+        <v>63817.15411159581</v>
       </c>
       <c r="L5" t="n">
-        <v>63817.15411159587</v>
+        <v>63817.15411159581</v>
       </c>
       <c r="M5" t="n">
+        <v>58022.99176574546</v>
+      </c>
+      <c r="N5" t="n">
+        <v>58022.99176574546</v>
+      </c>
+      <c r="O5" t="n">
         <v>58022.99176574547</v>
-      </c>
-      <c r="N5" t="n">
-        <v>58022.99176574547</v>
-      </c>
-      <c r="O5" t="n">
-        <v>58022.99176574546</v>
       </c>
       <c r="P5" t="n">
         <v>58022.99176574546</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45763.60215943239</v>
+        <v>-45767.97073189941</v>
       </c>
       <c r="C6" t="n">
-        <v>-45763.60215943227</v>
+        <v>-45767.97073189947</v>
       </c>
       <c r="D6" t="n">
-        <v>-45763.60215943245</v>
+        <v>-45767.97073189959</v>
       </c>
       <c r="E6" t="n">
-        <v>-324938.7513070259</v>
+        <v>-325184.5944629617</v>
       </c>
       <c r="F6" t="n">
-        <v>10163.77800312304</v>
+        <v>9917.934847186896</v>
       </c>
       <c r="G6" t="n">
-        <v>-87792.75064092524</v>
+        <v>-87792.75064092508</v>
       </c>
       <c r="H6" t="n">
-        <v>-999.207344960465</v>
+        <v>-999.2073449601812</v>
       </c>
       <c r="I6" t="n">
-        <v>-999.2073449603413</v>
+        <v>-999.2073449600648</v>
       </c>
       <c r="J6" t="n">
-        <v>-207361.2269670959</v>
+        <v>-207361.2269670964</v>
       </c>
       <c r="K6" t="n">
-        <v>-24127.15986655588</v>
+        <v>-24127.15986655587</v>
       </c>
       <c r="L6" t="n">
-        <v>-110920.7031625206</v>
+        <v>-110920.7031625211</v>
       </c>
       <c r="M6" t="n">
-        <v>-48262.30303776412</v>
+        <v>-48262.3030377637</v>
       </c>
       <c r="N6" t="n">
-        <v>-17551.34959592608</v>
+        <v>-17551.34959592613</v>
       </c>
       <c r="O6" t="n">
-        <v>-18572.71683784634</v>
+        <v>-18572.71683784681</v>
       </c>
       <c r="P6" t="n">
-        <v>-17551.34959592619</v>
+        <v>-17551.34959592602</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="F2" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="H2" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="I2" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="J2" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="K2" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="L2" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="M2" t="n">
         <v>148.1573299746539</v>
@@ -26774,10 +26774,10 @@
         <v>147.960821895434</v>
       </c>
       <c r="O3" t="n">
-        <v>147.9608218954341</v>
+        <v>147.960821895434</v>
       </c>
       <c r="P3" t="n">
-        <v>147.9608218954341</v>
+        <v>147.960821895434</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="F4" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="G4" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="H4" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="I4" t="n">
-        <v>148.3792973187128</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="J4" t="n">
-        <v>844.7938906540063</v>
+        <v>844.7938906540052</v>
       </c>
       <c r="K4" t="n">
-        <v>844.7938906540063</v>
+        <v>844.7938906540046</v>
       </c>
       <c r="L4" t="n">
-        <v>844.7938906540063</v>
+        <v>844.7938906540046</v>
       </c>
       <c r="M4" t="n">
-        <v>696.4145933352934</v>
+        <v>696.4145933352933</v>
       </c>
       <c r="N4" t="n">
-        <v>696.4145933352934</v>
+        <v>696.4145933352933</v>
       </c>
       <c r="O4" t="n">
-        <v>696.4145933352931</v>
+        <v>696.4145933352933</v>
       </c>
       <c r="P4" t="n">
-        <v>696.4145933352931</v>
+        <v>696.4145933352933</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.491929119956</v>
+        <v>108.4919291199562</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.276709052400491</v>
+        <v>1.276709052400633</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.491929119956</v>
+        <v>108.4919291199562</v>
       </c>
       <c r="M2" t="n">
-        <v>38.3886918022975</v>
+        <v>38.38869180229705</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.276709052400491</v>
+        <v>1.276709052400719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>696.4145933352935</v>
+        <v>696.4145933352938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.491929119956</v>
+        <v>108.4919291199562</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.276709052400491</v>
+        <v>1.276709052400633</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="C11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="D11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="E11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="F11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="G11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="H11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="I11" t="n">
         <v>148.1573299746539</v>
@@ -28141,22 +28141,22 @@
         <v>171.8022846955789</v>
       </c>
       <c r="T11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="U11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="V11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="W11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="X11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>9.445951034736936</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -28175,7 +28175,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28187,7 +28187,7 @@
         <v>95.86480218241284</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.74098649571548</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.42667720891154</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T12" t="n">
         <v>185.5154603869774</v>
       </c>
       <c r="U12" t="n">
-        <v>147.6987889983726</v>
+        <v>67.90960930680657</v>
       </c>
       <c r="V12" t="n">
-        <v>214.9094591025808</v>
+        <v>134.84585845674</v>
       </c>
       <c r="W12" t="n">
-        <v>90.52341276031009</v>
+        <v>90.52341276031171</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28251,25 +28251,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>3.161876921801934</v>
+        <v>3.161876921803554</v>
       </c>
       <c r="E13" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>129.3764002595802</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
         <v>166.9637365489679</v>
       </c>
       <c r="H13" t="n">
-        <v>155.4066944437036</v>
+        <v>47.84812192479977</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.7371713495762</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.59287420192325</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>15.80988382663731</v>
       </c>
       <c r="R13" t="n">
         <v>136.0296090620145</v>
@@ -28299,22 +28299,22 @@
         <v>206.922814223242</v>
       </c>
       <c r="T13" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="U13" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="V13" t="n">
-        <v>214.9094591025808</v>
+        <v>109.7486540784503</v>
       </c>
       <c r="W13" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="X13" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.9094591025808</v>
+        <v>214.9094591025812</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="C14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="D14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="E14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="F14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="G14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="H14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="I14" t="n">
         <v>148.1573299746539</v>
@@ -28378,22 +28378,22 @@
         <v>171.8022846955789</v>
       </c>
       <c r="T14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="U14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="V14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="W14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="X14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.445951034735316</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -28457,22 +28457,22 @@
         <v>145.3600385256214</v>
       </c>
       <c r="T15" t="n">
-        <v>185.5154603869774</v>
+        <v>37.13616306826609</v>
       </c>
       <c r="U15" t="n">
-        <v>214.9094591025807</v>
+        <v>67.90960930680657</v>
       </c>
       <c r="V15" t="n">
-        <v>136.2253059796758</v>
+        <v>77.73236900743802</v>
       </c>
       <c r="W15" t="n">
-        <v>90.52341276031009</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.21681576820399</v>
+        <v>123.3235561939494</v>
       </c>
     </row>
     <row r="16">
@@ -28488,7 +28488,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>141.8537582518268</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
@@ -28506,7 +28506,7 @@
         <v>134.7371713495762</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>40.59287420192325</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>15.80988382663731</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>136.0296090620145</v>
       </c>
       <c r="S16" t="n">
         <v>206.922814223242</v>
       </c>
       <c r="T16" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="U16" t="n">
-        <v>135.924486273613</v>
+        <v>182.4394574201305</v>
       </c>
       <c r="V16" t="n">
-        <v>214.9094591025807</v>
+        <v>109.7486540784503</v>
       </c>
       <c r="W16" t="n">
-        <v>134.9155401490619</v>
+        <v>134.9155401490635</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025812</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.9094591025807</v>
+        <v>71.43550990093433</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="C17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="D17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="E17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="F17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="G17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="H17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="I17" t="n">
         <v>148.1573299746539</v>
@@ -28621,16 +28621,16 @@
         <v>252.2888975331896</v>
       </c>
       <c r="V17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="W17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="X17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>35.8571517547813</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>95.86480218241284</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>32.83789296169277</v>
       </c>
       <c r="S18" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5154603869774</v>
+        <v>37.1361630682661</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2889066255179</v>
+        <v>67.90960930680657</v>
       </c>
       <c r="V18" t="n">
-        <v>77.7323690074364</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>47.55852092227039</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.21681576820399</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>33.34051767882468</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>19.79643901797203</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28737,7 +28737,7 @@
         <v>166.9637365489679</v>
       </c>
       <c r="H19" t="n">
-        <v>7.027397124990628</v>
+        <v>155.4066944437036</v>
       </c>
       <c r="I19" t="n">
         <v>134.7371713495762</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.80988382663731</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.0296090620145</v>
@@ -28773,22 +28773,22 @@
         <v>206.922814223242</v>
       </c>
       <c r="T19" t="n">
-        <v>81.32784032899688</v>
+        <v>81.32784032899852</v>
       </c>
       <c r="U19" t="n">
         <v>284.303783592326</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>109.7486540784503</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>114.0573382118943</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.43550990093271</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="C20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="D20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="E20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="F20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="H20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="I20" t="n">
         <v>148.1573299746539</v>
@@ -28858,16 +28858,16 @@
         <v>252.2888975331896</v>
       </c>
       <c r="V20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="W20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="X20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="Y20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.445951034735316</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>26.37489216004403</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -28895,10 +28895,10 @@
         <v>127.122959624192</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86480218241284</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.74098649571548</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.42667720891154</v>
       </c>
       <c r="S21" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>98.47614387698201</v>
+        <v>185.5154603869774</v>
       </c>
       <c r="U21" t="n">
         <v>216.2889066255179</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>77.73236900743802</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -28946,7 +28946,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.21681576820399</v>
+        <v>42.21681576820561</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.34051767882306</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28977,7 +28977,7 @@
         <v>155.4066944437036</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.7371713495762</v>
       </c>
       <c r="J22" t="n">
         <v>40.59287420192325</v>
@@ -29007,13 +29007,13 @@
         <v>136.0296090620145</v>
       </c>
       <c r="S22" t="n">
-        <v>58.54351690452901</v>
+        <v>206.922814223242</v>
       </c>
       <c r="T22" t="n">
-        <v>229.7071376477099</v>
+        <v>99.01465256938894</v>
       </c>
       <c r="U22" t="n">
-        <v>284.303783592326</v>
+        <v>135.9244862736147</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -29022,10 +29022,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>84.60532841611888</v>
+        <v>80.56064214486665</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>71.43550990093433</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="C23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="D23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="E23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="F23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="G23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="H23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="I23" t="n">
         <v>148.1573299746539</v>
@@ -29095,16 +29095,16 @@
         <v>252.2888975331896</v>
       </c>
       <c r="V23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="W23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="X23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
       <c r="Y23" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225374</v>
       </c>
     </row>
     <row r="24">
@@ -29126,16 +29126,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>25.05120586510836</v>
+        <v>127.122959624192</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.86480218241284</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.74098649571548</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,25 +29165,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>185.5154603869774</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2889066255179</v>
+        <v>122.0038399630186</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>90.52341276031171</v>
       </c>
       <c r="X24" t="n">
-        <v>47.5585209222705</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>42.21681576820561</v>
       </c>
     </row>
     <row r="25">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.83721374585109</v>
+        <v>33.34051767882468</v>
       </c>
       <c r="C25" t="n">
-        <v>19.54051252422366</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>18.58443923025502</v>
+        <v>166.9637365489679</v>
       </c>
       <c r="H25" t="n">
         <v>155.4066944437036</v>
@@ -29241,13 +29241,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0296090620145</v>
+        <v>21.14700781033085</v>
       </c>
       <c r="S25" t="n">
-        <v>58.54351690452913</v>
+        <v>58.54351690453064</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7071376477099</v>
+        <v>81.32784032899851</v>
       </c>
       <c r="U25" t="n">
         <v>284.303783592326</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="C26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="D26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="E26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="F26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="G26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="H26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="I26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="J26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>109.7686381723564</v>
+        <v>87.99595407945128</v>
       </c>
       <c r="N26" t="n">
-        <v>87.99595407945844</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="R26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="S26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="T26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="U26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="V26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="W26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="X26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Y26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="C28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="D28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="E28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="F28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="G28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="H28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="I28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="J28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="K28" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>15.05093859354702</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>109.0096929392579</v>
       </c>
       <c r="N28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="O28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="P28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Q28" t="n">
-        <v>109.7686381723564</v>
+        <v>15.80988382663731</v>
       </c>
       <c r="R28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="S28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="T28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="U28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="V28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="W28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="X28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Y28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="C29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="D29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="E29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="F29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="G29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="H29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="I29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="J29" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="L29" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>35.62824733839091</v>
       </c>
       <c r="P29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Q29" t="n">
-        <v>87.9959540794581</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="R29" t="n">
-        <v>109.7686381723564</v>
+        <v>52.36770674105871</v>
       </c>
       <c r="S29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="T29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="U29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="V29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="W29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="X29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Y29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="C31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="D31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="E31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="G31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="H31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="I31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="J31" t="n">
         <v>40.59287420192325</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="L31" t="n">
-        <v>84.22670256398007</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="M31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="N31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="O31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="P31" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>109.7686381723564</v>
+        <v>84.2267025639718</v>
       </c>
       <c r="R31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="T31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="U31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="V31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="W31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="X31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Y31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="C32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="D32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="E32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="F32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="G32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="H32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="I32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="J32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="K32" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>35.62824733839989</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>87.99595407944935</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="O32" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="R32" t="n">
-        <v>52.36770674105871</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="S32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="T32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="U32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="V32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="W32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="X32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="C34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="D34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="E34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="F34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="G34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="H34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="I34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="J34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="K34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>15.0509385935384</v>
       </c>
       <c r="M34" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="O34" t="n">
-        <v>15.05093859354861</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="P34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="R34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="T34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="U34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="V34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="W34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="X34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723568</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>16.63641068162471</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.6364106816248</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>16.63641068162482</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.44629450826208</v>
+        <v>15.80988382663731</v>
       </c>
       <c r="R40" t="n">
         <v>136.0296090620145</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.3677067410587</v>
+        <v>52.36770674105871</v>
       </c>
       <c r="S41" t="n">
         <v>148.1573299746539</v>
@@ -30657,10 +30657,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>16.63641068162356</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.44629450826196</v>
+        <v>15.80988382663731</v>
       </c>
       <c r="R43" t="n">
         <v>136.0296090620145</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.3677067410587</v>
+        <v>52.36770674105871</v>
       </c>
       <c r="S44" t="n">
         <v>148.1573299746539</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16.6364106816247</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.80988382663731</v>
+        <v>32.44629450826208</v>
       </c>
       <c r="R46" t="n">
         <v>136.0296090620145</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.594817374454006</v>
+        <v>0.5948173744540057</v>
       </c>
       <c r="H41" t="n">
-        <v>6.09167343612709</v>
+        <v>6.091673436127087</v>
       </c>
       <c r="I41" t="n">
-        <v>22.93169682863809</v>
+        <v>22.93169682863808</v>
       </c>
       <c r="J41" t="n">
-        <v>50.48438113506573</v>
+        <v>50.48438113506572</v>
       </c>
       <c r="K41" t="n">
-        <v>75.66300059570382</v>
+        <v>75.66300059570379</v>
       </c>
       <c r="L41" t="n">
-        <v>93.86664281915063</v>
+        <v>93.86664281915058</v>
       </c>
       <c r="M41" t="n">
-        <v>104.4447263020971</v>
+        <v>104.444726302097</v>
       </c>
       <c r="N41" t="n">
         <v>106.1347511672645</v>
       </c>
       <c r="O41" t="n">
-        <v>100.2200359000375</v>
+        <v>100.2200359000374</v>
       </c>
       <c r="P41" t="n">
-        <v>85.53548196820419</v>
+        <v>85.53548196820415</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.23358474557008</v>
+        <v>64.23358474557006</v>
       </c>
       <c r="R41" t="n">
-        <v>37.36419689804649</v>
+        <v>37.36419689804647</v>
       </c>
       <c r="S41" t="n">
-        <v>13.55440092037068</v>
+        <v>13.55440092037067</v>
       </c>
       <c r="T41" t="n">
-        <v>2.603813056672412</v>
+        <v>2.603813056672411</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04758538995632047</v>
+        <v>0.04758538995632045</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3182553527562167</v>
+        <v>0.3182553527562166</v>
       </c>
       <c r="H42" t="n">
-        <v>3.073676696356094</v>
+        <v>3.073676696356093</v>
       </c>
       <c r="I42" t="n">
         <v>10.95747596112413</v>
       </c>
       <c r="J42" t="n">
-        <v>30.06815155141081</v>
+        <v>30.0681515514108</v>
       </c>
       <c r="K42" t="n">
-        <v>51.39126018607733</v>
+        <v>51.39126018607732</v>
       </c>
       <c r="L42" t="n">
-        <v>69.10189139559873</v>
+        <v>69.10189139559871</v>
       </c>
       <c r="M42" t="n">
-        <v>80.63864793301157</v>
+        <v>80.63864793301154</v>
       </c>
       <c r="N42" t="n">
-        <v>82.77291299601271</v>
+        <v>82.77291299601268</v>
       </c>
       <c r="O42" t="n">
-        <v>75.7210443902039</v>
+        <v>75.72104439020387</v>
       </c>
       <c r="P42" t="n">
-        <v>60.77281380833406</v>
+        <v>60.77281380833404</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.625016607969</v>
+        <v>40.62501660796899</v>
       </c>
       <c r="R42" t="n">
-        <v>19.75974900709213</v>
+        <v>19.75974900709212</v>
       </c>
       <c r="S42" t="n">
-        <v>5.911453591765689</v>
+        <v>5.911453591765686</v>
       </c>
       <c r="T42" t="n">
         <v>1.282792408697206</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02093785215501427</v>
+        <v>0.02093785215501426</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2668145968606188</v>
+        <v>0.2668145968606187</v>
       </c>
       <c r="H43" t="n">
-        <v>2.372224324815322</v>
+        <v>2.372224324815321</v>
       </c>
       <c r="I43" t="n">
-        <v>8.023842603772067</v>
+        <v>8.023842603772064</v>
       </c>
       <c r="J43" t="n">
-        <v>18.86379199804575</v>
+        <v>18.86379199804574</v>
       </c>
       <c r="K43" t="n">
-        <v>30.99900498071553</v>
+        <v>30.99900498071552</v>
       </c>
       <c r="L43" t="n">
-        <v>39.66805379144147</v>
+        <v>39.66805379144145</v>
       </c>
       <c r="M43" t="n">
-        <v>41.82440085152409</v>
+        <v>41.82440085152408</v>
       </c>
       <c r="N43" t="n">
-        <v>40.82991008140727</v>
+        <v>40.82991008140726</v>
       </c>
       <c r="O43" t="n">
-        <v>37.71303047262639</v>
+        <v>37.71303047262638</v>
       </c>
       <c r="P43" t="n">
-        <v>32.27001269666974</v>
+        <v>32.27001269666973</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.34208410621055</v>
+        <v>22.34208410621054</v>
       </c>
       <c r="R43" t="n">
-        <v>11.9969545097511</v>
+        <v>11.99695450975109</v>
       </c>
       <c r="S43" t="n">
-        <v>4.649850747107329</v>
+        <v>4.649850747107327</v>
       </c>
       <c r="T43" t="n">
         <v>1.140026004768098</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.594817374454006</v>
+        <v>0.5948173744540057</v>
       </c>
       <c r="H44" t="n">
-        <v>6.09167343612709</v>
+        <v>6.091673436127087</v>
       </c>
       <c r="I44" t="n">
-        <v>22.93169682863809</v>
+        <v>22.93169682863808</v>
       </c>
       <c r="J44" t="n">
-        <v>50.48438113506573</v>
+        <v>50.48438113506572</v>
       </c>
       <c r="K44" t="n">
-        <v>75.66300059570382</v>
+        <v>75.66300059570379</v>
       </c>
       <c r="L44" t="n">
-        <v>93.86664281915063</v>
+        <v>93.86664281915058</v>
       </c>
       <c r="M44" t="n">
-        <v>104.4447263020971</v>
+        <v>104.444726302097</v>
       </c>
       <c r="N44" t="n">
         <v>106.1347511672645</v>
       </c>
       <c r="O44" t="n">
-        <v>100.2200359000375</v>
+        <v>100.2200359000374</v>
       </c>
       <c r="P44" t="n">
-        <v>85.53548196820419</v>
+        <v>85.53548196820415</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.23358474557008</v>
+        <v>64.23358474557006</v>
       </c>
       <c r="R44" t="n">
-        <v>37.36419689804649</v>
+        <v>37.36419689804647</v>
       </c>
       <c r="S44" t="n">
-        <v>13.55440092037068</v>
+        <v>13.55440092037067</v>
       </c>
       <c r="T44" t="n">
-        <v>2.603813056672412</v>
+        <v>2.603813056672411</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04758538995632047</v>
+        <v>0.04758538995632045</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3182553527562167</v>
+        <v>0.3182553527562166</v>
       </c>
       <c r="H45" t="n">
-        <v>3.073676696356094</v>
+        <v>3.073676696356093</v>
       </c>
       <c r="I45" t="n">
         <v>10.95747596112413</v>
       </c>
       <c r="J45" t="n">
-        <v>30.06815155141081</v>
+        <v>30.0681515514108</v>
       </c>
       <c r="K45" t="n">
-        <v>51.39126018607733</v>
+        <v>51.39126018607732</v>
       </c>
       <c r="L45" t="n">
-        <v>69.10189139559873</v>
+        <v>69.10189139559871</v>
       </c>
       <c r="M45" t="n">
-        <v>80.63864793301157</v>
+        <v>80.63864793301154</v>
       </c>
       <c r="N45" t="n">
-        <v>82.77291299601271</v>
+        <v>82.77291299601268</v>
       </c>
       <c r="O45" t="n">
-        <v>75.7210443902039</v>
+        <v>75.72104439020387</v>
       </c>
       <c r="P45" t="n">
-        <v>60.77281380833406</v>
+        <v>60.77281380833404</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.625016607969</v>
+        <v>40.62501660796899</v>
       </c>
       <c r="R45" t="n">
-        <v>19.75974900709213</v>
+        <v>19.75974900709212</v>
       </c>
       <c r="S45" t="n">
-        <v>5.911453591765689</v>
+        <v>5.911453591765686</v>
       </c>
       <c r="T45" t="n">
         <v>1.282792408697206</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02093785215501427</v>
+        <v>0.02093785215501426</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2668145968606188</v>
+        <v>0.2668145968606187</v>
       </c>
       <c r="H46" t="n">
-        <v>2.372224324815322</v>
+        <v>2.372224324815321</v>
       </c>
       <c r="I46" t="n">
-        <v>8.023842603772067</v>
+        <v>8.023842603772064</v>
       </c>
       <c r="J46" t="n">
-        <v>18.86379199804575</v>
+        <v>18.86379199804574</v>
       </c>
       <c r="K46" t="n">
-        <v>30.99900498071553</v>
+        <v>30.99900498071552</v>
       </c>
       <c r="L46" t="n">
-        <v>39.66805379144147</v>
+        <v>39.66805379144145</v>
       </c>
       <c r="M46" t="n">
-        <v>41.82440085152409</v>
+        <v>41.82440085152408</v>
       </c>
       <c r="N46" t="n">
-        <v>40.82991008140727</v>
+        <v>40.82991008140726</v>
       </c>
       <c r="O46" t="n">
-        <v>37.71303047262639</v>
+        <v>37.71303047262638</v>
       </c>
       <c r="P46" t="n">
-        <v>32.27001269666974</v>
+        <v>32.27001269666973</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.34208410621055</v>
+        <v>22.34208410621054</v>
       </c>
       <c r="R46" t="n">
-        <v>11.9969545097511</v>
+        <v>11.99695450975109</v>
       </c>
       <c r="S46" t="n">
-        <v>4.649850747107329</v>
+        <v>4.649850747107327</v>
       </c>
       <c r="T46" t="n">
         <v>1.140026004768098</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>123.210183430829</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,16 +35419,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>19.17399076389547</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O11" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="P11" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.379297318713</v>
+        <v>142.384174194723</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>90.9309258272756</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>142.3841741947245</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O12" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>51.45324836744742</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>141.2913663169561</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>137.0342318349951</v>
       </c>
       <c r="N13" t="n">
-        <v>148.2422698975616</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O13" t="n">
-        <v>137.1712592561513</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>95.87454171499073</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>123.210183430829</v>
       </c>
       <c r="K14" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="L14" t="n">
-        <v>142.3841741947245</v>
+        <v>19.173990763894</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,10 +35662,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>90.9309258272756</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>142.384174194723</v>
       </c>
       <c r="M15" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O15" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.45324836744891</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>64.94262896520381</v>
       </c>
       <c r="L16" t="n">
-        <v>141.2913663169561</v>
+        <v>88.64958329207923</v>
       </c>
       <c r="M16" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N16" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>137.1712592561513</v>
       </c>
       <c r="P16" t="n">
-        <v>84.52947623127754</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>123.210183430829</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>19.17399076389403</v>
       </c>
       <c r="L17" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>19.1739907638955</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N17" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>90.9309258272756</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="M18" t="n">
-        <v>51.45324836744885</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N18" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Q18" t="n">
-        <v>148.379297318713</v>
+        <v>142.384174194723</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>64.94262896520381</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>141.2913663169561</v>
       </c>
       <c r="M19" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N19" t="n">
-        <v>148.379297318713</v>
+        <v>64.80560154404758</v>
       </c>
       <c r="O19" t="n">
-        <v>129.9463008332429</v>
+        <v>137.1712592561513</v>
       </c>
       <c r="P19" t="n">
         <v>95.87454171499073</v>
@@ -36121,25 +36121,25 @@
         <v>123.210183430829</v>
       </c>
       <c r="K20" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>148.379297318713</v>
+        <v>19.17399076389403</v>
       </c>
       <c r="M20" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.1739907638955</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>90.9309258272756</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="L21" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>142.3841741947245</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O21" t="n">
-        <v>148.379297318713</v>
+        <v>51.45324836744742</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.379297318713</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>64.94262896520381</v>
+        <v>53.59756348148755</v>
       </c>
       <c r="L22" t="n">
         <v>141.2913663169561</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N22" t="n">
-        <v>148.379297318713</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O22" t="n">
-        <v>137.0342318349998</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>95.87454171499073</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>123.210183430829</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>19.17399076389535</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="L23" t="n">
-        <v>148.3792973187128</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>148.3792973187128</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="P23" t="n">
-        <v>148.3792973187128</v>
+        <v>142.384174194723</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>90.9309258272756</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="L24" t="n">
-        <v>148.3792973187128</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>51.45324836744877</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>51.45324836744742</v>
       </c>
       <c r="P24" t="n">
-        <v>148.3792973187128</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.3792973187128</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>64.94262896520381</v>
       </c>
       <c r="L25" t="n">
-        <v>141.2913663169561</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>148.3792973187128</v>
+        <v>148.3792973187113</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>141.1543388957999</v>
       </c>
       <c r="O25" t="n">
-        <v>137.0342318349995</v>
+        <v>137.1712592561513</v>
       </c>
       <c r="P25" t="n">
         <v>95.87454171499073</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>232.9788216031854</v>
+        <v>232.9788216031858</v>
       </c>
       <c r="K26" t="n">
         <v>318.2290329641712</v>
       </c>
       <c r="L26" t="n">
-        <v>555.034647743978</v>
+        <v>445.2660095716215</v>
       </c>
       <c r="M26" t="n">
-        <v>611.4246435179766</v>
+        <v>589.6519594250715</v>
       </c>
       <c r="N26" t="n">
-        <v>576.2835928100722</v>
+        <v>598.0562769029705</v>
       </c>
       <c r="O26" t="n">
         <v>408.3054747614859</v>
       </c>
       <c r="P26" t="n">
-        <v>425.7656317123315</v>
+        <v>425.7656317123319</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.6196995804559</v>
+        <v>269.3883377528127</v>
       </c>
       <c r="R26" t="n">
-        <v>57.40093143129771</v>
+        <v>57.4009314312981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>90.9309258272756</v>
       </c>
       <c r="K27" t="n">
-        <v>283.1998991357628</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>438.6189067189479</v>
       </c>
       <c r="M27" t="n">
-        <v>490.796333476109</v>
+        <v>570.5713282463715</v>
       </c>
       <c r="N27" t="n">
-        <v>599.2028585749239</v>
+        <v>364.0088562214767</v>
       </c>
       <c r="O27" t="n">
         <v>471.8826108388411</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.17576397043317</v>
+        <v>69.17576397043356</v>
       </c>
       <c r="K28" t="n">
-        <v>174.7112671375602</v>
+        <v>64.94262896520381</v>
       </c>
       <c r="L28" t="n">
-        <v>156.3423049105031</v>
+        <v>251.0600044893129</v>
       </c>
       <c r="M28" t="n">
-        <v>161.0097605763743</v>
+        <v>270.0194535156322</v>
       </c>
       <c r="N28" t="n">
-        <v>270.217075273562</v>
+        <v>270.2170752735624</v>
       </c>
       <c r="O28" t="n">
-        <v>246.9398974285077</v>
+        <v>246.9398974285081</v>
       </c>
       <c r="P28" t="n">
-        <v>205.6431798873471</v>
+        <v>205.6431798873475</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.9587543457191</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.9788216031854</v>
+        <v>123.210183430829</v>
       </c>
       <c r="K29" t="n">
-        <v>318.2290329641712</v>
+        <v>427.9976711365281</v>
       </c>
       <c r="L29" t="n">
-        <v>555.034647743978</v>
+        <v>445.2660095716215</v>
       </c>
       <c r="M29" t="n">
-        <v>611.4246435179766</v>
+        <v>611.424643517977</v>
       </c>
       <c r="N29" t="n">
-        <v>488.2876387306137</v>
+        <v>598.0562769029705</v>
       </c>
       <c r="O29" t="n">
-        <v>408.3054747614859</v>
+        <v>443.9337220998768</v>
       </c>
       <c r="P29" t="n">
-        <v>425.7656317123315</v>
+        <v>425.7656317123319</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.615653659914</v>
+        <v>269.3883377528127</v>
       </c>
       <c r="R29" t="n">
-        <v>57.40093143129771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.9309258272756</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>283.1998991357628</v>
       </c>
       <c r="L30" t="n">
         <v>438.6189067189479</v>
       </c>
       <c r="M30" t="n">
-        <v>570.5713282463715</v>
+        <v>52.17742675716151</v>
       </c>
       <c r="N30" t="n">
-        <v>454.9397820487523</v>
+        <v>599.2028585749239</v>
       </c>
       <c r="O30" t="n">
         <v>471.8826108388411</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>64.94262896520381</v>
+        <v>174.7112671375606</v>
       </c>
       <c r="L31" t="n">
-        <v>225.5180688809362</v>
+        <v>251.0600044893129</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7783987487308</v>
+        <v>270.7783987487311</v>
       </c>
       <c r="N31" t="n">
-        <v>270.217075273562</v>
+        <v>270.2170752735624</v>
       </c>
       <c r="O31" t="n">
-        <v>246.9398974285077</v>
+        <v>246.9398974285081</v>
       </c>
       <c r="P31" t="n">
-        <v>205.6431798873471</v>
+        <v>95.87454171499073</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.9587543457191</v>
+        <v>68.41681873733448</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.9788216031854</v>
+        <v>232.9788216031858</v>
       </c>
       <c r="K32" t="n">
-        <v>427.9976711365276</v>
+        <v>318.2290329641712</v>
       </c>
       <c r="L32" t="n">
-        <v>480.8942569100214</v>
+        <v>445.2660095716215</v>
       </c>
       <c r="M32" t="n">
-        <v>501.6560053456202</v>
+        <v>589.6519594250695</v>
       </c>
       <c r="N32" t="n">
-        <v>488.2876387306137</v>
+        <v>598.0562769029705</v>
       </c>
       <c r="O32" t="n">
-        <v>518.0741129338422</v>
+        <v>408.3054747614859</v>
       </c>
       <c r="P32" t="n">
-        <v>425.7656317123315</v>
+        <v>425.7656317123319</v>
       </c>
       <c r="Q32" t="n">
-        <v>269.3883377528123</v>
+        <v>269.3883377528127</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>57.4009314312981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.9309258272756</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>283.1998991357628</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>438.6189067189479</v>
@@ -37157,16 +37157,16 @@
         <v>570.5713282463715</v>
       </c>
       <c r="N33" t="n">
-        <v>280.7992563053936</v>
+        <v>599.2028585749239</v>
       </c>
       <c r="O33" t="n">
-        <v>471.8826108388411</v>
+        <v>327.6195343126693</v>
       </c>
       <c r="P33" t="n">
         <v>365.920207016109</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>199.9902992196803</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.17576397043311</v>
+        <v>69.17576397043356</v>
       </c>
       <c r="K34" t="n">
-        <v>174.7112671375602</v>
+        <v>174.7112671375606</v>
       </c>
       <c r="L34" t="n">
-        <v>141.2913663169561</v>
+        <v>156.3423049104945</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7783987487306</v>
+        <v>161.0097605763743</v>
       </c>
       <c r="N34" t="n">
-        <v>270.217075273562</v>
+        <v>270.2170752735624</v>
       </c>
       <c r="O34" t="n">
-        <v>152.2221978496999</v>
+        <v>246.9398974285081</v>
       </c>
       <c r="P34" t="n">
-        <v>205.6431798873471</v>
+        <v>205.6431798873475</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.95875434571904</v>
+        <v>93.9587543457195</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>445.2660095716215</v>
       </c>
       <c r="M35" t="n">
-        <v>501.6560053456202</v>
+        <v>498.6053773949383</v>
       </c>
       <c r="N35" t="n">
-        <v>485.2370107799323</v>
+        <v>488.2876387306137</v>
       </c>
       <c r="O35" t="n">
         <v>408.3054747614859</v>
@@ -37385,10 +37385,10 @@
         <v>90.9309258272756</v>
       </c>
       <c r="K36" t="n">
-        <v>283.1998991357628</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>286.1452122458464</v>
+        <v>403.4152035851804</v>
       </c>
       <c r="M36" t="n">
         <v>570.5713282463715</v>
@@ -37400,10 +37400,10 @@
         <v>471.8826108388411</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>365.920207016109</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.9902992196803</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>64.94262896520381</v>
       </c>
       <c r="L37" t="n">
-        <v>141.2913663169561</v>
+        <v>157.9277769985808</v>
       </c>
       <c r="M37" t="n">
         <v>161.0097605763743</v>
@@ -37476,7 +37476,7 @@
         <v>160.4484371012056</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8076699377761</v>
+        <v>137.1712592561513</v>
       </c>
       <c r="P37" t="n">
         <v>95.87454171499073</v>
@@ -37543,7 +37543,7 @@
         <v>123.210183430829</v>
       </c>
       <c r="K38" t="n">
-        <v>315.1784050134897</v>
+        <v>318.2290329641712</v>
       </c>
       <c r="L38" t="n">
         <v>445.2660095716215</v>
@@ -37561,7 +37561,7 @@
         <v>315.9969935399751</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.6196995804559</v>
+        <v>156.5690716297743</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>599.2028585749239</v>
       </c>
       <c r="O39" t="n">
-        <v>471.8826108388411</v>
+        <v>236.688608485394</v>
       </c>
       <c r="P39" t="n">
-        <v>130.7262046626617</v>
+        <v>365.920207016109</v>
       </c>
       <c r="Q39" t="n">
         <v>199.9902992196803</v>
@@ -37716,10 +37716,10 @@
         <v>137.1712592561513</v>
       </c>
       <c r="P40" t="n">
-        <v>95.87454171499073</v>
+        <v>112.5109523966156</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.63641068162477</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>123.210183430829</v>
+        <v>120.159555480147</v>
       </c>
       <c r="K41" t="n">
-        <v>318.2290329641713</v>
+        <v>318.2290329641712</v>
       </c>
       <c r="L41" t="n">
-        <v>445.2660095716216</v>
+        <v>445.2660095716215</v>
       </c>
       <c r="M41" t="n">
         <v>501.6560053456202</v>
@@ -37798,7 +37798,7 @@
         <v>315.9969935399751</v>
       </c>
       <c r="Q41" t="n">
-        <v>156.5690716297734</v>
+        <v>159.6196995804559</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>283.1998991357628</v>
       </c>
       <c r="L42" t="n">
-        <v>438.6189067189479</v>
+        <v>211.1462302766931</v>
       </c>
       <c r="M42" t="n">
-        <v>570.5713282463716</v>
+        <v>570.5713282463715</v>
       </c>
       <c r="N42" t="n">
-        <v>171.7398829129893</v>
+        <v>599.2028585749239</v>
       </c>
       <c r="O42" t="n">
-        <v>471.8826108388412</v>
+        <v>471.8826108388411</v>
       </c>
       <c r="P42" t="n">
         <v>365.920207016109</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.9902992196803</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.94262896520382</v>
+        <v>64.94262896520381</v>
       </c>
       <c r="L43" t="n">
         <v>141.2913663169561</v>
@@ -37953,10 +37953,10 @@
         <v>137.1712592561513</v>
       </c>
       <c r="P43" t="n">
-        <v>95.87454171499074</v>
+        <v>112.5109523966143</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.63641068162465</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>123.210183430829</v>
       </c>
       <c r="K44" t="n">
-        <v>318.2290329641713</v>
+        <v>318.2290329641712</v>
       </c>
       <c r="L44" t="n">
-        <v>445.2660095716216</v>
+        <v>445.2660095716215</v>
       </c>
       <c r="M44" t="n">
-        <v>501.6560053456202</v>
+        <v>498.6053773949383</v>
       </c>
       <c r="N44" t="n">
         <v>488.2876387306137</v>
@@ -38032,7 +38032,7 @@
         <v>408.3054747614859</v>
       </c>
       <c r="P44" t="n">
-        <v>312.9463655892925</v>
+        <v>315.9969935399751</v>
       </c>
       <c r="Q44" t="n">
         <v>159.6196995804559</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>90.93092582727562</v>
+        <v>90.9309258272756</v>
       </c>
       <c r="K45" t="n">
-        <v>283.1998991357628</v>
+        <v>203.4249043655007</v>
       </c>
       <c r="L45" t="n">
-        <v>438.6189067189479</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>52.17742675716129</v>
+        <v>570.5713282463715</v>
       </c>
       <c r="N45" t="n">
         <v>599.2028585749239</v>
       </c>
       <c r="O45" t="n">
-        <v>471.8826108388412</v>
+        <v>471.8826108388411</v>
       </c>
       <c r="P45" t="n">
         <v>365.920207016109</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>64.94262896520382</v>
+        <v>64.94262896520381</v>
       </c>
       <c r="L46" t="n">
         <v>141.2913663169561</v>
@@ -38190,10 +38190,10 @@
         <v>137.1712592561513</v>
       </c>
       <c r="P46" t="n">
-        <v>112.5109523966154</v>
+        <v>95.87454171499073</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>16.63641068162477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
